--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0871</v>
+        <v>0.0192</v>
       </c>
       <c r="E2">
-        <v>0.006955</v>
+        <v>0.0239</v>
       </c>
       <c r="F2">
-        <v>0.11015</v>
+        <v>0.119</v>
       </c>
       <c r="G2">
-        <v>0.2057357004933853</v>
+        <v>0.2317577154594931</v>
       </c>
       <c r="H2">
-        <v>0.2041515462312717</v>
+        <v>0.2295504007309336</v>
       </c>
       <c r="I2">
-        <v>0.1864205457844977</v>
+        <v>0.2221852558601213</v>
       </c>
       <c r="J2">
-        <v>0.163298524571668</v>
+        <v>0.2026950535430869</v>
       </c>
       <c r="K2">
-        <v>2449.854</v>
+        <v>2064.322</v>
       </c>
       <c r="L2">
-        <v>0.2704680922472602</v>
+        <v>0.2600803855644641</v>
       </c>
       <c r="M2">
-        <v>1910.0966</v>
+        <v>1062.674</v>
       </c>
       <c r="N2">
-        <v>0.03408941862633729</v>
+        <v>0.01264526886162903</v>
       </c>
       <c r="O2">
-        <v>0.7796777277339791</v>
+        <v>0.5147811242625908</v>
       </c>
       <c r="P2">
-        <v>1716.2276</v>
+        <v>1025.858</v>
       </c>
       <c r="Q2">
-        <v>0.03062944623558523</v>
+        <v>0.01220717757642798</v>
       </c>
       <c r="R2">
-        <v>0.7005428078571212</v>
+        <v>0.4969466972691275</v>
       </c>
       <c r="S2">
-        <v>193.869</v>
+        <v>36.816</v>
       </c>
       <c r="T2">
-        <v>0.1014969609390436</v>
+        <v>0.0346446793654498</v>
       </c>
       <c r="U2">
-        <v>20894.39</v>
+        <v>23069.268</v>
       </c>
       <c r="V2">
-        <v>0.3729013536027213</v>
+        <v>0.2745123116788168</v>
       </c>
       <c r="W2">
-        <v>-0.004072883172561629</v>
+        <v>-0.06453676550450745</v>
       </c>
       <c r="X2">
-        <v>0.03429877395990839</v>
+        <v>0.02437059042823009</v>
       </c>
       <c r="Y2">
-        <v>-0.03837165713247002</v>
+        <v>-0.08890735593273753</v>
       </c>
       <c r="Z2">
-        <v>0.1675833075205303</v>
+        <v>0.1621874629734837</v>
       </c>
       <c r="AA2">
-        <v>0.0008402480892400901</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03313109131873079</v>
+        <v>0.0244163563527386</v>
       </c>
       <c r="AC2">
-        <v>-0.03278805786607438</v>
+        <v>-0.02569549932510661</v>
       </c>
       <c r="AD2">
-        <v>38906.841</v>
+        <v>43681.191</v>
       </c>
       <c r="AE2">
-        <v>616.1219388840178</v>
+        <v>1.089833326377482</v>
       </c>
       <c r="AF2">
-        <v>39522.96293888402</v>
+        <v>43682.28083332637</v>
       </c>
       <c r="AG2">
-        <v>18628.57293888402</v>
+        <v>20613.01283332637</v>
       </c>
       <c r="AH2">
-        <v>0.41361518443497</v>
+        <v>0.3420171549942269</v>
       </c>
       <c r="AI2">
-        <v>0.4946449990992646</v>
+        <v>0.547301185209129</v>
       </c>
       <c r="AJ2">
-        <v>0.2495103463731843</v>
+        <v>0.1969704266968096</v>
       </c>
       <c r="AK2">
-        <v>0.3156995545478396</v>
+        <v>0.3632588030969522</v>
       </c>
       <c r="AL2">
-        <v>213.152</v>
+        <v>256.156</v>
       </c>
       <c r="AM2">
-        <v>197.738</v>
+        <v>227.549</v>
       </c>
       <c r="AN2">
-        <v>20.83995479221291</v>
+        <v>23.99622432342161</v>
       </c>
       <c r="AO2">
-        <v>7.817801381173999</v>
+        <v>6.881173972110745</v>
       </c>
       <c r="AP2">
-        <v>9.978158285577173</v>
+        <v>11.32374069035957</v>
       </c>
       <c r="AQ2">
-        <v>8.427211765062861</v>
+        <v>7.746261244830784</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hao Wen Holdings Limited (SEHK:8019)</t>
+          <t>Capital Finance Holdings Limited (SEHK:8239)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,26 +727,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.413</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.4922360248447205</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4922360248447205</v>
       </c>
       <c r="I3">
-        <v>0.004983901585739464</v>
+        <v>0.5062111801242235</v>
       </c>
       <c r="J3">
-        <v>0.004983901585739464</v>
+        <v>0.5062111801242235</v>
       </c>
       <c r="K3">
-        <v>-2.13</v>
+        <v>-4.67</v>
       </c>
       <c r="L3">
-        <v>-0.2412231030577576</v>
+        <v>-0.7251552795031055</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -776,55 +773,52 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03109429324125497</v>
-      </c>
-      <c r="Z3">
-        <v>176.7387576353717</v>
-      </c>
-      <c r="AA3">
-        <v>0.8808485744405514</v>
+        <v>0.1074305829419491</v>
       </c>
       <c r="AB3">
-        <v>0.04284459967020006</v>
-      </c>
-      <c r="AC3">
-        <v>0.8380039747703514</v>
+        <v>0.03212923125003381</v>
       </c>
       <c r="AD3">
-        <v>3.89</v>
+        <v>60.6</v>
       </c>
       <c r="AE3">
-        <v>0.0499607449896027</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.939960744989603</v>
+        <v>60.6</v>
       </c>
       <c r="AG3">
-        <v>3.939960744989603</v>
+        <v>60.6</v>
       </c>
       <c r="AH3">
-        <v>0.3226841451235933</v>
+        <v>0.9247672821608424</v>
       </c>
       <c r="AI3">
-        <v>0.07030627239227438</v>
+        <v>0.9321642824180895</v>
       </c>
       <c r="AJ3">
-        <v>0.3226841451235933</v>
+        <v>0.9247672821608424</v>
       </c>
       <c r="AK3">
-        <v>0.07030627239227438</v>
+        <v>0.9321642824180895</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>6.143</v>
       </c>
       <c r="AN3">
-        <v>72.03703703703704</v>
+        <v>18.25301204819277</v>
+      </c>
+      <c r="AO3">
+        <v>0.5015384615384615</v>
       </c>
       <c r="AP3">
-        <v>72.96223601832598</v>
+        <v>18.25301204819277</v>
+      </c>
+      <c r="AQ3">
+        <v>0.5306853328992349</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TradeGo FinTech Limited (SEHK:8017)</t>
+          <t>AGM Group Holdings Inc. (NasdaqCM:AGMH)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,31 +838,31 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.2211091234347048</v>
+        <v>-1.401662049861496</v>
       </c>
       <c r="H4">
-        <v>-0.05617173524150269</v>
+        <v>-1.620498614958449</v>
       </c>
       <c r="I4">
-        <v>-0.02804878480019115</v>
+        <v>-1.565096952908587</v>
       </c>
       <c r="J4">
-        <v>-0.02804878480019115</v>
+        <v>-1.565096952908587</v>
       </c>
       <c r="K4">
-        <v>-0.194</v>
+        <v>-1.66</v>
       </c>
       <c r="L4">
-        <v>-0.03470483005366726</v>
+        <v>-2.299168975069252</v>
       </c>
       <c r="M4">
-        <v>1.83</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.07120622568093386</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-9.43298969072165</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -880,76 +874,70 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1.83</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="V4">
-        <v>0.2256809338521401</v>
+        <v>0.004796163069544364</v>
       </c>
       <c r="W4">
-        <v>-0.0223760092272203</v>
+        <v>-0.2902097902097902</v>
       </c>
       <c r="X4">
-        <v>0.02806173687320976</v>
+        <v>0.01801195861597682</v>
       </c>
       <c r="Y4">
-        <v>-0.05043774610043006</v>
+        <v>-0.308221748825767</v>
       </c>
       <c r="Z4">
-        <v>-27.66827267827495</v>
+        <v>-0.9025000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.7760614261459425</v>
+        <v>1.4125</v>
       </c>
       <c r="AB4">
-        <v>0.02839884396362729</v>
+        <v>0.01801195861597682</v>
       </c>
       <c r="AC4">
-        <v>0.7476625821823153</v>
+        <v>1.394488041384023</v>
       </c>
       <c r="AD4">
-        <v>0.586</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.6889635351653429</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.274963535165343</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-4.525036464834657</v>
+        <v>-1.6</v>
       </c>
       <c r="AH4">
-        <v>0.04726469911639596</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.1612864536937646</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.2136974855857443</v>
+        <v>-0.004819277108433735</v>
       </c>
       <c r="AK4">
-        <v>-2.149698267566055</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.045</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>6.104166666666664</v>
+        <v>-0</v>
       </c>
       <c r="AP4">
-        <v>-47.13579650869433</v>
-      </c>
-      <c r="AQ4">
-        <v>6.666666666666667</v>
+        <v>1.481481481481481</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>China Everbright Limited (SEHK:165)</t>
+          <t>TradeGo FinTech Limited (SEHK:8017)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -968,122 +956,113 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0395</v>
-      </c>
-      <c r="E5">
-        <v>0.06759999999999999</v>
-      </c>
       <c r="G5">
-        <v>0.9187848729076257</v>
+        <v>0.3190661478599222</v>
       </c>
       <c r="H5">
-        <v>0.9187848729076257</v>
+        <v>0.178988326848249</v>
       </c>
       <c r="I5">
-        <v>0.6849195367661134</v>
+        <v>0.2308690012970169</v>
       </c>
       <c r="J5">
-        <v>0.5641193821803601</v>
+        <v>0.2190412298019973</v>
       </c>
       <c r="K5">
-        <v>312.8</v>
+        <v>1.93</v>
       </c>
       <c r="L5">
-        <v>0.6464145484604258</v>
+        <v>0.2503242542153048</v>
       </c>
       <c r="M5">
-        <v>142.4</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.04520347914418132</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.4552429667519182</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>142.4</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.04520347914418132</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.4552429667519182</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>984.8</v>
+        <v>6.2</v>
       </c>
       <c r="V5">
-        <v>0.3126150720589169</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="W5">
-        <v>0.05999462963673328</v>
+        <v>0.2911010558069382</v>
       </c>
       <c r="X5">
-        <v>0.03560431594167915</v>
+        <v>0.01817476852830254</v>
       </c>
       <c r="Y5">
-        <v>0.02439031369505414</v>
+        <v>0.2729262872786357</v>
       </c>
       <c r="Z5">
-        <v>0.05881218220025232</v>
+        <v>5.444915254237286</v>
       </c>
       <c r="AA5">
-        <v>0.03317709188748511</v>
+        <v>1.19266093345579</v>
       </c>
       <c r="AB5">
-        <v>0.03371834948181509</v>
+        <v>0.01834614146654549</v>
       </c>
       <c r="AC5">
-        <v>-0.0005412575943299774</v>
+        <v>1.174314791989244</v>
       </c>
       <c r="AD5">
-        <v>3495.6</v>
+        <v>0.376</v>
       </c>
       <c r="AE5">
-        <v>4.787180794388514</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>3500.387180794388</v>
+        <v>0.376</v>
       </c>
       <c r="AG5">
-        <v>2515.587180794389</v>
+        <v>-5.824</v>
       </c>
       <c r="AH5">
-        <v>0.5263275385522095</v>
+        <v>0.02189101071262226</v>
       </c>
       <c r="AI5">
-        <v>0.3889194989537473</v>
+        <v>0.04151943462897527</v>
       </c>
       <c r="AJ5">
-        <v>0.4439960592451486</v>
+        <v>-0.5306122448979591</v>
       </c>
       <c r="AK5">
-        <v>0.3138408338824237</v>
+        <v>-2.03921568627451</v>
       </c>
       <c r="AL5">
-        <v>127.3</v>
+        <v>0.036</v>
       </c>
       <c r="AM5">
-        <v>127.3</v>
+        <v>-0.054</v>
       </c>
       <c r="AN5">
-        <v>10.22733257263232</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="AO5">
-        <v>2.588373919874313</v>
+        <v>49.44444444444445</v>
       </c>
       <c r="AP5">
-        <v>7.360037393704874</v>
+        <v>-3.033333333333333</v>
       </c>
       <c r="AQ5">
-        <v>2.588373919874313</v>
+        <v>-32.96296296296296</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1073,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>China Success Finance Group Holdings Limited (SEHK:3623)</t>
+          <t>China Financial Services Holdings Limited (SEHK:605)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1103,34 +1082,37 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.111</v>
+        <v>0.0209</v>
+      </c>
+      <c r="E6">
+        <v>-0.193</v>
       </c>
       <c r="G6">
-        <v>0.2241379310344828</v>
+        <v>0.8091428571428572</v>
       </c>
       <c r="H6">
-        <v>0.2241379310344828</v>
+        <v>0.8091428571428572</v>
       </c>
       <c r="I6">
-        <v>0.1986053567187183</v>
+        <v>0.6697142857142857</v>
       </c>
       <c r="J6">
-        <v>0.09930267835935914</v>
+        <v>0.3924290726817043</v>
       </c>
       <c r="K6">
-        <v>-0.848</v>
+        <v>14.8</v>
       </c>
       <c r="L6">
-        <v>-0.05848275862068966</v>
+        <v>0.1691428571428572</v>
       </c>
       <c r="M6">
-        <v>0.779</v>
+        <v>1.58</v>
       </c>
       <c r="N6">
-        <v>0.01653927813163482</v>
+        <v>0.03251028806584362</v>
       </c>
       <c r="O6">
-        <v>-0.9186320754716981</v>
+        <v>0.1067567567567568</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1139,82 +1121,82 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>0.779</v>
+        <v>1.58</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>22.9</v>
+        <v>91.5</v>
       </c>
       <c r="V6">
-        <v>0.4861995753715498</v>
+        <v>1.882716049382716</v>
       </c>
       <c r="W6">
-        <v>-0.005840220385674931</v>
+        <v>0.03061646669424907</v>
       </c>
       <c r="X6">
-        <v>0.03011553966238627</v>
+        <v>0.04233508381567548</v>
       </c>
       <c r="Y6">
-        <v>-0.0359557600480612</v>
+        <v>-0.01171861712142641</v>
       </c>
       <c r="Z6">
-        <v>0.1058988495554112</v>
+        <v>0.1530523001574252</v>
       </c>
       <c r="AA6">
-        <v>0.01051603939602717</v>
+        <v>0.06006217222258024</v>
       </c>
       <c r="AB6">
-        <v>0.03059761145123287</v>
+        <v>0.02552094969389455</v>
       </c>
       <c r="AC6">
-        <v>-0.0200815720552057</v>
+        <v>0.03454122252868568</v>
       </c>
       <c r="AD6">
-        <v>15.6</v>
+        <v>162.5</v>
       </c>
       <c r="AE6">
-        <v>0.3511116378929235</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>15.95111163789292</v>
+        <v>162.5</v>
       </c>
       <c r="AG6">
-        <v>-6.948888362107075</v>
+        <v>71</v>
       </c>
       <c r="AH6">
-        <v>0.2529870009192115</v>
+        <v>0.7697773567029844</v>
       </c>
       <c r="AI6">
-        <v>0.1027439447589737</v>
+        <v>0.2485089463220676</v>
       </c>
       <c r="AJ6">
-        <v>-0.1730683928449196</v>
+        <v>0.5936454849498328</v>
       </c>
       <c r="AK6">
-        <v>-0.05250343783374439</v>
+        <v>0.1262446657183499</v>
       </c>
       <c r="AL6">
-        <v>3.02</v>
+        <v>18.1</v>
       </c>
       <c r="AM6">
-        <v>3.02</v>
+        <v>18.1</v>
       </c>
       <c r="AN6">
-        <v>5.131578947368421</v>
+        <v>2.744932432432432</v>
       </c>
       <c r="AO6">
-        <v>0.8609271523178809</v>
+        <v>3.237569060773481</v>
       </c>
       <c r="AP6">
-        <v>-2.285818540166801</v>
+        <v>1.199324324324324</v>
       </c>
       <c r="AQ6">
-        <v>0.8609271523178809</v>
+        <v>3.237569060773481</v>
       </c>
     </row>
     <row r="7">
@@ -1225,7 +1207,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AEON Credit Service (Asia) Company Limited (SEHK:900)</t>
+          <t>Yue Da International Holdings Limited (SEHK:629)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1234,115 +1216,115 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0442</v>
-      </c>
-      <c r="E7">
-        <v>0.08259999999999999</v>
+        <v>-0.193</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.6448170731707318</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6448170731707318</v>
       </c>
       <c r="I7">
-        <v>0.03184163912643734</v>
+        <v>0.5106707317073171</v>
       </c>
       <c r="J7">
-        <v>0.02639078225903027</v>
+        <v>0.2553353658536586</v>
       </c>
       <c r="K7">
-        <v>48.9</v>
+        <v>4.12</v>
       </c>
       <c r="L7">
-        <v>0.3535791757049891</v>
+        <v>0.6280487804878049</v>
       </c>
       <c r="M7">
-        <v>23.5</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.07071922961179657</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.4805725971370143</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>23.5</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.07071922961179657</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.4805725971370143</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>90.40000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="V7">
-        <v>0.272043334336443</v>
+        <v>0.1697095435684647</v>
       </c>
       <c r="W7">
-        <v>0.1251279426816786</v>
+        <v>0.08306451612903226</v>
       </c>
       <c r="X7">
-        <v>0.03429877395990839</v>
+        <v>0.02664475047108647</v>
       </c>
       <c r="Y7">
-        <v>0.09082916872177021</v>
+        <v>0.05641976565794579</v>
       </c>
       <c r="Z7">
-        <v>0.2040179569215158</v>
+        <v>0.08900949796472184</v>
       </c>
       <c r="AA7">
-        <v>0.005384193478047942</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="AB7">
-        <v>0.03079213286267106</v>
+        <v>0.02330581157446874</v>
       </c>
       <c r="AC7">
-        <v>-0.02540793938462312</v>
+        <v>-0.0005785388471960147</v>
       </c>
       <c r="AD7">
-        <v>299.8</v>
+        <v>57.2</v>
       </c>
       <c r="AE7">
-        <v>8.381506544068579</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>308.1815065440686</v>
+        <v>57.2</v>
       </c>
       <c r="AG7">
-        <v>217.7815065440686</v>
+        <v>49.02</v>
       </c>
       <c r="AH7">
-        <v>0.4811715926146948</v>
+        <v>0.5426944971537002</v>
       </c>
       <c r="AI7">
-        <v>0.4257935630541072</v>
+        <v>0.5204731574158326</v>
       </c>
       <c r="AJ7">
-        <v>0.3959077045005539</v>
+        <v>0.5042172392511829</v>
       </c>
       <c r="AK7">
-        <v>0.3438393832057932</v>
+        <v>0.4819111285882816</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.679</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.1890000000000001</v>
       </c>
       <c r="AN7">
-        <v>49.30921052631579</v>
+        <v>13.8498789346247</v>
+      </c>
+      <c r="AO7">
+        <v>4.933726067746686</v>
       </c>
       <c r="AP7">
-        <v>35.81932673422181</v>
+        <v>11.86924939467312</v>
+      </c>
+      <c r="AQ7">
+        <v>17.72486772486772</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G-Resources Group Limited (SEHK:1051)</t>
+          <t>China Everbright Limited (SEHK:165)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1361,107 +1343,122 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D8">
+        <v>-0.0202</v>
+      </c>
+      <c r="E8">
+        <v>-0.245</v>
+      </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.9756626506024095</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9756626506024095</v>
       </c>
       <c r="I8">
-        <v>0.01284468211489076</v>
+        <v>0.6053012048192771</v>
       </c>
       <c r="J8">
-        <v>0.01284468211489076</v>
+        <v>0.4033234137594766</v>
       </c>
       <c r="K8">
-        <v>43.4</v>
+        <v>147.1</v>
       </c>
       <c r="L8">
-        <v>0.9665924276169265</v>
+        <v>0.3544578313253012</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>104.4</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.04627249357326479</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.7097212780421482</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>104.4</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.04627249357326479</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.7097212780421482</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>928.8</v>
+        <v>1120.9</v>
       </c>
       <c r="V8">
-        <v>4.611717974180735</v>
+        <v>0.4968087935466715</v>
       </c>
       <c r="W8">
-        <v>0.03032208481799762</v>
+        <v>0.02819357930043124</v>
       </c>
       <c r="X8">
-        <v>0.02775226874490725</v>
+        <v>0.03057738928421739</v>
       </c>
       <c r="Y8">
-        <v>0.00256981607309037</v>
+        <v>-0.002383809983786147</v>
       </c>
       <c r="Z8">
-        <v>0.07196708017658082</v>
+        <v>0.05369874357879482</v>
       </c>
       <c r="AA8">
-        <v>0.0009243942676050375</v>
+        <v>0.0216579605747943</v>
       </c>
       <c r="AB8">
-        <v>0.02779705364474905</v>
+        <v>0.02419004537735958</v>
       </c>
       <c r="AC8">
-        <v>-0.02687265937714401</v>
+        <v>-0.002532084802565282</v>
       </c>
       <c r="AD8">
-        <v>0.363</v>
+        <v>3897.2</v>
       </c>
       <c r="AE8">
-        <v>0.8563688652070232</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.219368865207023</v>
+        <v>3897.2</v>
       </c>
       <c r="AG8">
-        <v>-927.580631134793</v>
+        <v>2776.3</v>
       </c>
       <c r="AH8">
-        <v>0.006018027161155609</v>
+        <v>0.6333409172164982</v>
       </c>
       <c r="AI8">
-        <v>0.00082505777439218</v>
+        <v>0.4211140526230482</v>
       </c>
       <c r="AJ8">
-        <v>1.277341464871178</v>
+        <v>0.5516741182314953</v>
       </c>
       <c r="AK8">
-        <v>-1.689214920704222</v>
+        <v>0.3413371692731386</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>151.3</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>151.3</v>
       </c>
       <c r="AN8">
-        <v>0.4852941176470588</v>
+        <v>15.50198886237072</v>
+      </c>
+      <c r="AO8">
+        <v>1.660277594183741</v>
       </c>
       <c r="AP8">
-        <v>-1240.081057666835</v>
+        <v>11.04335719968178</v>
+      </c>
+      <c r="AQ8">
+        <v>1.660277594183741</v>
       </c>
     </row>
     <row r="9">
@@ -1472,7 +1469,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Asia Pacific Silk Road Investment Company Limited (SEHK:767)</t>
+          <t>China Shandong Hi-Speed Financial Group Limited (SEHK:412)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1480,26 +1477,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D9">
-        <v>0.24</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.2287581699346405</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2287581699346405</v>
       </c>
       <c r="I9">
-        <v>0.01213144280267569</v>
+        <v>0.2392156862745098</v>
       </c>
       <c r="J9">
-        <v>0.01213144280267569</v>
+        <v>0.2392156862745098</v>
       </c>
       <c r="K9">
-        <v>-57.4</v>
+        <v>-40.6</v>
       </c>
       <c r="L9">
-        <v>-3.396449704142012</v>
+        <v>-0.265359477124183</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1523,67 +1517,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>13.4</v>
+        <v>480.9</v>
       </c>
       <c r="V9">
-        <v>0.4652777777777778</v>
+        <v>0.3968804159445407</v>
       </c>
       <c r="W9">
-        <v>-0.2027552101730837</v>
+        <v>-0.08905461724062295</v>
       </c>
       <c r="X9">
-        <v>0.02806818589340006</v>
+        <v>0.02968403470815069</v>
       </c>
       <c r="Y9">
-        <v>-0.2308233960664838</v>
+        <v>-0.1187386519487736</v>
       </c>
       <c r="Z9">
-        <v>0.08126371595440861</v>
+        <v>0.1041453951398816</v>
       </c>
       <c r="AA9">
-        <v>0.000985846122033792</v>
+        <v>0.02491321217071676</v>
       </c>
       <c r="AB9">
-        <v>0.02841085391813849</v>
+        <v>0.02956667393263347</v>
       </c>
       <c r="AC9">
-        <v>-0.0274250077961047</v>
+        <v>-0.004653461761916701</v>
       </c>
       <c r="AD9">
-        <v>1.19</v>
+        <v>1944.2</v>
       </c>
       <c r="AE9">
-        <v>0.264893083173904</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.454893083173904</v>
+        <v>1944.2</v>
       </c>
       <c r="AG9">
-        <v>-11.9451069168261</v>
+        <v>1463.3</v>
       </c>
       <c r="AH9">
-        <v>0.04808786067014843</v>
+        <v>0.6160524731455369</v>
       </c>
       <c r="AI9">
-        <v>0.00462083682081946</v>
+        <v>0.6079424640400251</v>
       </c>
       <c r="AJ9">
-        <v>-0.7087026217182472</v>
+        <v>0.5470280373831776</v>
       </c>
       <c r="AK9">
-        <v>-0.03962485662334346</v>
+        <v>0.5385521327886349</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="AN9">
-        <v>4.612403100775193</v>
+        <v>52.26344086021505</v>
+      </c>
+      <c r="AO9">
+        <v>1.365671641791045</v>
       </c>
       <c r="AP9">
-        <v>-46.2988640187058</v>
+        <v>39.33602150537634</v>
+      </c>
+      <c r="AQ9">
+        <v>3.553398058252427</v>
       </c>
     </row>
     <row r="10">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oi Wah Pawnshop Credit Holdings Limited (SEHK:1319)</t>
+          <t>G-Resources Group Limited (SEHK:1051)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.09329999999999999</v>
+        <v>-0.265</v>
       </c>
       <c r="E10">
-        <v>0.111</v>
+        <v>-0.0837</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1615,103 +1615,94 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03756269206282357</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03120238346813689</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>13.6</v>
+        <v>43.3</v>
       </c>
       <c r="L10">
-        <v>0.5862068965517241</v>
+        <v>1.006976744186046</v>
       </c>
       <c r="M10">
-        <v>4.383</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.05867469879518072</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.3222794117647059</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>3.83</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.05127175368139224</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.2816176470588235</v>
+        <v>-0</v>
       </c>
       <c r="S10">
-        <v>0.5529999999999999</v>
-      </c>
-      <c r="T10">
-        <v>0.1261692904403376</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>18.1</v>
+        <v>920.7</v>
       </c>
       <c r="V10">
-        <v>0.2423025435073628</v>
+        <v>5.496716417910448</v>
       </c>
       <c r="W10">
-        <v>0.1341222879684418</v>
+        <v>0.02932213719780592</v>
       </c>
       <c r="X10">
-        <v>0.03687306129209142</v>
+        <v>0.01801717018763844</v>
       </c>
       <c r="Y10">
-        <v>0.09724922667635039</v>
+        <v>0.01130496701016748</v>
       </c>
       <c r="Z10">
-        <v>0.1203115273751741</v>
+        <v>0.08109183556084432</v>
       </c>
       <c r="AA10">
-        <v>0.003754006412797432</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03131812100968803</v>
+        <v>0.0180189420955317</v>
       </c>
       <c r="AC10">
-        <v>-0.02756411459689059</v>
+        <v>-0.0180189420955317</v>
       </c>
       <c r="AD10">
-        <v>92.8</v>
+        <v>0.12</v>
       </c>
       <c r="AE10">
-        <v>3.542727720712466</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>96.34272772071246</v>
+        <v>0.12</v>
       </c>
       <c r="AG10">
-        <v>78.24272772071245</v>
+        <v>-920.58</v>
       </c>
       <c r="AH10">
-        <v>0.5632670210804046</v>
+        <v>0.0007159050232669132</v>
       </c>
       <c r="AI10">
-        <v>0.4653277551997513</v>
+        <v>7.854842510407668e-05</v>
       </c>
       <c r="AJ10">
-        <v>0.5115818769990221</v>
+        <v>1.222419928825623</v>
       </c>
       <c r="AK10">
-        <v>0.4141081726964781</v>
+        <v>-1.516556291390729</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>58.73417721518987</v>
-      </c>
-      <c r="AP10">
-        <v>49.52071374728636</v>
       </c>
     </row>
     <row r="11">
@@ -1722,7 +1713,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Get Nice Holdings Limited (SEHK:64)</t>
+          <t>Asia Pacific Silk Road Investment Company Limited (SEHK:767)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1731,10 +1722,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0809</v>
-      </c>
-      <c r="E11">
-        <v>-0.0417</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1743,103 +1731,94 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0006601837696787227</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0005067555863343939</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.7</v>
+        <v>-109.4</v>
       </c>
       <c r="L11">
-        <v>0.3954703832752613</v>
+        <v>-9.193277310924371</v>
       </c>
       <c r="M11">
-        <v>24.6</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.0881404514510928</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>1.083700440528635</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>24.6</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.0881404514510928</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>1.083700440528635</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>51.5</v>
+        <v>10.4</v>
       </c>
       <c r="V11">
-        <v>0.1845216768183447</v>
+        <v>0.05341551104262969</v>
       </c>
       <c r="W11">
-        <v>0.03243320474353479</v>
+        <v>-0.3527894227668494</v>
       </c>
       <c r="X11">
-        <v>0.02852250779220384</v>
+        <v>0.0180523101531103</v>
       </c>
       <c r="Y11">
-        <v>0.00391069695133095</v>
+        <v>-0.3708417329199597</v>
       </c>
       <c r="Z11">
-        <v>0.08411790532793974</v>
+        <v>0.03994763167612205</v>
       </c>
       <c r="AA11">
-        <v>4.262721843568113e-05</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02836727647285164</v>
+        <v>0.01816583920943329</v>
       </c>
       <c r="AC11">
-        <v>-0.02832464925441595</v>
+        <v>-0.01816583920943329</v>
       </c>
       <c r="AD11">
-        <v>31.9</v>
+        <v>1.08</v>
       </c>
       <c r="AE11">
-        <v>0.04552725810220658</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>31.94552725810221</v>
+        <v>1.08</v>
       </c>
       <c r="AG11">
-        <v>-19.55447274189779</v>
+        <v>-9.32</v>
       </c>
       <c r="AH11">
-        <v>0.1027037023798582</v>
+        <v>0.005516395954642967</v>
       </c>
       <c r="AI11">
-        <v>0.03654068137848303</v>
+        <v>0.01372648703609558</v>
       </c>
       <c r="AJ11">
-        <v>-0.07534120486866283</v>
+        <v>-0.05027511058366599</v>
       </c>
       <c r="AK11">
-        <v>-0.02376734007544886</v>
+        <v>-0.1364967779730522</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>678.7234042553191</v>
-      </c>
-      <c r="AP11">
-        <v>-416.0526115297403</v>
       </c>
     </row>
     <row r="12">
@@ -1850,7 +1829,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oshidori International Holdings Limited (SEHK:622)</t>
+          <t>Shougang Concord Grand (Group) Limited (SEHK:730)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1859,10 +1838,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.393</v>
-      </c>
-      <c r="E12">
-        <v>-0.4</v>
+        <v>0.0919</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1871,103 +1847,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1092140903098568</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05546564649384237</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.93</v>
+        <v>-1.01</v>
       </c>
       <c r="L12">
-        <v>0.3479809976247031</v>
+        <v>-0.09805825242718447</v>
       </c>
       <c r="M12">
-        <v>14.9</v>
+        <v>0.471</v>
       </c>
       <c r="N12">
-        <v>0.02058579718154186</v>
+        <v>0.003005743458838545</v>
       </c>
       <c r="O12">
-        <v>5.085324232081911</v>
+        <v>-0.4663366336633663</v>
       </c>
       <c r="P12">
-        <v>14.9</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.02058579718154186</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>5.085324232081911</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.471</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>34.2</v>
+        <v>64.7</v>
       </c>
       <c r="V12">
-        <v>0.04725062171870683</v>
+        <v>0.4128908742820677</v>
       </c>
       <c r="W12">
-        <v>0.0039978168917997</v>
+        <v>-0.005690140845070422</v>
       </c>
       <c r="X12">
-        <v>0.02855054986575201</v>
+        <v>0.01891256498241083</v>
       </c>
       <c r="Y12">
-        <v>-0.0245527329739523</v>
+        <v>-0.02460270582748125</v>
       </c>
       <c r="Z12">
-        <v>0.0118407752646525</v>
+        <v>0.1052201450607825</v>
       </c>
       <c r="AA12">
-        <v>0.0006567562550422484</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.02925389907526238</v>
+        <v>0.01969370584075434</v>
       </c>
       <c r="AC12">
-        <v>-0.02859714282022013</v>
+        <v>-0.01969370584075434</v>
       </c>
       <c r="AD12">
-        <v>84.40000000000001</v>
+        <v>19.4</v>
       </c>
       <c r="AE12">
-        <v>1.302086797955029</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>85.70208679795503</v>
+        <v>19.4</v>
       </c>
       <c r="AG12">
-        <v>51.50208679795503</v>
+        <v>-45.3</v>
       </c>
       <c r="AH12">
-        <v>0.1058701246058005</v>
+        <v>0.1101646791595684</v>
       </c>
       <c r="AI12">
-        <v>0.09469822009050055</v>
+        <v>0.08059825508932279</v>
       </c>
       <c r="AJ12">
-        <v>0.06642841245360476</v>
+        <v>-0.4066427289048475</v>
       </c>
       <c r="AK12">
-        <v>0.059143274434877</v>
+        <v>-0.2573863636363636</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>71.52542372881356</v>
-      </c>
-      <c r="AP12">
-        <v>43.64583626945342</v>
       </c>
     </row>
     <row r="13">
@@ -1978,7 +1948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Styland Holdings Limited (SEHK:211)</t>
+          <t>Oshidori International Holdings Limited (SEHK:622)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1987,10 +1957,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0451</v>
-      </c>
-      <c r="E13">
-        <v>-0.39</v>
+        <v>-0.471</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1999,34 +1966,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.08556408694922378</v>
+        <v>0.01339266821496437</v>
       </c>
       <c r="J13">
-        <v>0.08540365428619399</v>
+        <v>0.01339266821496437</v>
       </c>
       <c r="K13">
-        <v>1.24</v>
+        <v>-21.3</v>
       </c>
       <c r="L13">
-        <v>0.1781609195402299</v>
+        <v>-1.638461538461538</v>
       </c>
       <c r="M13">
-        <v>0.757</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>0.02783088235294118</v>
+        <v>0.007796257796257797</v>
       </c>
       <c r="O13">
-        <v>0.6104838709677419</v>
+        <v>-0.176056338028169</v>
       </c>
       <c r="P13">
-        <v>0.757</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>0.02783088235294118</v>
+        <v>0.007796257796257797</v>
       </c>
       <c r="R13">
-        <v>0.6104838709677419</v>
+        <v>-0.176056338028169</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2035,55 +2002,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>8.57</v>
+        <v>88.8</v>
       </c>
       <c r="V13">
-        <v>0.3150735294117648</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="W13">
-        <v>0.01646746347941567</v>
+        <v>-0.0260200342047398</v>
       </c>
       <c r="X13">
-        <v>0.03450685223104767</v>
+        <v>0.01921443373025272</v>
       </c>
       <c r="Y13">
-        <v>-0.018039388751632</v>
+        <v>-0.04523446793499252</v>
       </c>
       <c r="Z13">
-        <v>0.06482718306833314</v>
+        <v>0.01495956068439061</v>
       </c>
       <c r="AA13">
-        <v>0.005536478331115731</v>
+        <v>0.0002003484328876687</v>
       </c>
       <c r="AB13">
-        <v>0.03484285316163296</v>
+        <v>0.02017743913179472</v>
       </c>
       <c r="AC13">
-        <v>-0.02930637483051723</v>
+        <v>-0.01997709069890705</v>
       </c>
       <c r="AD13">
-        <v>23.9</v>
+        <v>79.3</v>
       </c>
       <c r="AE13">
-        <v>2.122369774167013</v>
+        <v>0.2094765660273161</v>
       </c>
       <c r="AF13">
-        <v>26.02236977416701</v>
+        <v>79.50947656602732</v>
       </c>
       <c r="AG13">
-        <v>17.45236977416701</v>
+        <v>-9.29052343397268</v>
       </c>
       <c r="AH13">
-        <v>0.4889366986961507</v>
+        <v>0.1418521539602573</v>
       </c>
       <c r="AI13">
-        <v>0.2755953894866814</v>
+        <v>0.08397621542023359</v>
       </c>
       <c r="AJ13">
-        <v>0.3908497995164375</v>
+        <v>-0.01969543521068575</v>
       </c>
       <c r="AK13">
-        <v>0.2032834949119649</v>
+        <v>-0.0108279962957469</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2092,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>23.43137254901961</v>
+        <v>367.1296296296296</v>
       </c>
       <c r="AP13">
-        <v>17.11016644526178</v>
+        <v>-43.01168256468834</v>
       </c>
     </row>
     <row r="14">
@@ -2106,7 +2073,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Good Resources Holdings Limited (SEHK:109)</t>
+          <t>Global International Credit Group Limited (SEHK:1669)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2115,10 +2082,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.291</v>
+        <v>0.0101</v>
       </c>
       <c r="E14">
-        <v>0.221</v>
+        <v>0.0578</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2127,103 +2094,97 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.0121738410989095</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.008020412959281555</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>6.93</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L14">
-        <v>0.35</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.267</v>
+        <v>1.24</v>
       </c>
       <c r="N14">
-        <v>0.00312280701754386</v>
+        <v>0.05462555066079295</v>
       </c>
       <c r="O14">
-        <v>0.03852813852813853</v>
+        <v>0.1483253588516746</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>1.24</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>0.05462555066079295</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0.1483253588516746</v>
       </c>
       <c r="S14">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>152.7</v>
+        <v>2.98</v>
       </c>
       <c r="V14">
-        <v>1.785964912280702</v>
+        <v>0.1312775330396476</v>
       </c>
       <c r="W14">
-        <v>0.0187703141928494</v>
+        <v>0.08530612244897959</v>
       </c>
       <c r="X14">
-        <v>0.0283038629716357</v>
+        <v>0.02050194768657271</v>
       </c>
       <c r="Y14">
-        <v>-0.009533548778786295</v>
+        <v>0.06480417476240688</v>
       </c>
       <c r="Z14">
-        <v>0.1058454427284987</v>
+        <v>0.1084634346754314</v>
       </c>
       <c r="AA14">
-        <v>-0.0008489241605405449</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.02859091994148376</v>
+        <v>0.02049946967877884</v>
       </c>
       <c r="AC14">
-        <v>-0.02943984410202431</v>
+        <v>-0.02049946967877884</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>7.77</v>
       </c>
       <c r="AE14">
-        <v>7.15521026879204</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>7.15521026879204</v>
+        <v>7.77</v>
       </c>
       <c r="AG14">
-        <v>-145.5447897312079</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="AH14">
-        <v>0.07722404652727927</v>
+        <v>0.255004922874959</v>
       </c>
       <c r="AI14">
-        <v>0.01961109521643047</v>
+        <v>0.06908508935716191</v>
       </c>
       <c r="AJ14">
-        <v>2.423937037380645</v>
+        <v>0.1742451800654783</v>
       </c>
       <c r="AK14">
-        <v>-0.6860297682381149</v>
+        <v>0.04374828751484153</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>-122.3065459926117</v>
       </c>
     </row>
     <row r="15">
@@ -2234,7 +2195,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Allied Properties (H.K.) Limited (SEHK:56)</t>
+          <t>Oi Wah Pawnshop Credit Holdings Limited (SEHK:1319)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2243,10 +2204,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.0352</v>
+        <v>0.0192</v>
       </c>
       <c r="E15">
-        <v>0.0152</v>
+        <v>0.0239</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2255,103 +2216,97 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01930748732107736</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01764279990191644</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>252.4</v>
+        <v>12.9</v>
       </c>
       <c r="L15">
-        <v>0.4314529914529915</v>
+        <v>0.5707964601769911</v>
       </c>
       <c r="M15">
-        <v>69.8</v>
+        <v>5.764</v>
       </c>
       <c r="N15">
-        <v>0.05146733520129774</v>
+        <v>0.07456662354463131</v>
       </c>
       <c r="O15">
-        <v>0.2765451664025356</v>
+        <v>0.4468217054263566</v>
       </c>
       <c r="P15">
-        <v>69.8</v>
+        <v>5.54</v>
       </c>
       <c r="Q15">
-        <v>0.05146733520129774</v>
+        <v>0.07166882276843467</v>
       </c>
       <c r="R15">
-        <v>0.2765451664025356</v>
+        <v>0.4294573643410853</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2240000000000002</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.03886190145732134</v>
       </c>
       <c r="U15">
-        <v>678</v>
+        <v>12.9</v>
       </c>
       <c r="V15">
-        <v>0.4999262645627489</v>
+        <v>0.166882276843467</v>
       </c>
       <c r="W15">
-        <v>0.05487672305083272</v>
+        <v>0.1165311653116531</v>
       </c>
       <c r="X15">
-        <v>0.04031982137382688</v>
+        <v>0.02197387112835381</v>
       </c>
       <c r="Y15">
-        <v>0.01455690167700584</v>
+        <v>0.09455729418329931</v>
       </c>
       <c r="Z15">
-        <v>0.09926820498126021</v>
+        <v>0.121898597626753</v>
       </c>
       <c r="AA15">
-        <v>0.001751369077106799</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.03180730217948336</v>
+        <v>0.02145144999578298</v>
       </c>
       <c r="AC15">
-        <v>-0.03005593310237656</v>
+        <v>-0.02145144999578298</v>
       </c>
       <c r="AD15">
-        <v>2380</v>
+        <v>42.1</v>
       </c>
       <c r="AE15">
-        <v>27.02559958584872</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>2407.025599585849</v>
+        <v>42.1</v>
       </c>
       <c r="AG15">
-        <v>1729.025599585849</v>
+        <v>29.2</v>
       </c>
       <c r="AH15">
-        <v>0.6396176726292325</v>
+        <v>0.3525963149078727</v>
       </c>
       <c r="AI15">
-        <v>0.2806723975896071</v>
+        <v>0.261166253101737</v>
       </c>
       <c r="AJ15">
-        <v>0.5604211244124087</v>
+        <v>0.2741784037558685</v>
       </c>
       <c r="AK15">
-        <v>0.2189214848613559</v>
+        <v>0.1968981793661497</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>142.5149700598803</v>
-      </c>
-      <c r="AP15">
-        <v>103.5344670410688</v>
       </c>
     </row>
     <row r="16">
@@ -2362,7 +2317,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sun Hung Kai &amp; Co. Limited (SEHK:86)</t>
+          <t>AEON Credit Service (Asia) Company Limited (SEHK:900)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2371,13 +2326,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.00795</v>
+        <v>-0.00276</v>
       </c>
       <c r="E16">
-        <v>-0.0207</v>
-      </c>
-      <c r="F16">
-        <v>0.18</v>
+        <v>0.0461</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2386,103 +2338,97 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02010242408927534</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01739943429629878</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>147.8</v>
+        <v>41.5</v>
       </c>
       <c r="L16">
-        <v>0.3364443432733895</v>
+        <v>0.3528911564625851</v>
       </c>
       <c r="M16">
-        <v>156.7</v>
+        <v>23.8</v>
       </c>
       <c r="N16">
-        <v>0.1645662675908423</v>
+        <v>0.08472766108935566</v>
       </c>
       <c r="O16">
-        <v>1.06021650879567</v>
+        <v>0.5734939759036145</v>
       </c>
       <c r="P16">
-        <v>69</v>
+        <v>23.8</v>
       </c>
       <c r="Q16">
-        <v>0.07246376811594203</v>
+        <v>0.08472766108935566</v>
       </c>
       <c r="R16">
-        <v>0.4668470906630581</v>
+        <v>0.5734939759036145</v>
       </c>
       <c r="S16">
-        <v>87.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.5596681557115507</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>599.8</v>
+        <v>108</v>
       </c>
       <c r="V16">
-        <v>0.6299096828397395</v>
+        <v>0.3844784620861517</v>
       </c>
       <c r="W16">
-        <v>0.05787907268170427</v>
+        <v>0.09985563041385948</v>
       </c>
       <c r="X16">
-        <v>0.04335495857933583</v>
+        <v>0.02272004495909227</v>
       </c>
       <c r="Y16">
-        <v>0.01452411410236844</v>
+        <v>0.0771355854547672</v>
       </c>
       <c r="Z16">
-        <v>0.1155278890993889</v>
+        <v>0.1904761904761904</v>
       </c>
       <c r="AA16">
-        <v>0.00201011991577491</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.03211533684978467</v>
+        <v>0.02184471164629725</v>
       </c>
       <c r="AC16">
-        <v>-0.03010521693400976</v>
+        <v>-0.02184471164629725</v>
       </c>
       <c r="AD16">
-        <v>2074.9</v>
+        <v>181.8</v>
       </c>
       <c r="AE16">
-        <v>21.84502548790671</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>2096.745025487907</v>
+        <v>181.8</v>
       </c>
       <c r="AG16">
-        <v>1496.945025487907</v>
+        <v>73.80000000000001</v>
       </c>
       <c r="AH16">
-        <v>0.6876952545749413</v>
+        <v>0.3929111735465745</v>
       </c>
       <c r="AI16">
-        <v>0.4186837145409016</v>
+        <v>0.2927064884881662</v>
       </c>
       <c r="AJ16">
-        <v>0.6112112634855883</v>
+        <v>0.2080631519594023</v>
       </c>
       <c r="AK16">
-        <v>0.3395861562703964</v>
+        <v>0.1438316117715845</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>157.189393939394</v>
-      </c>
-      <c r="AP16">
-        <v>113.4049261733263</v>
       </c>
     </row>
     <row r="17">
@@ -2502,10 +2448,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0407</v>
+        <v>0.0498</v>
       </c>
       <c r="E17">
-        <v>-0.00129</v>
+        <v>-0.131</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2514,34 +2460,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01890129839429603</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01724673369805944</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>193.7</v>
+        <v>197.4</v>
       </c>
       <c r="L17">
-        <v>0.3129746324123445</v>
+        <v>0.329879679144385</v>
       </c>
       <c r="M17">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
       <c r="N17">
-        <v>0.06443859448323222</v>
+        <v>0.03884093711467325</v>
       </c>
       <c r="O17">
-        <v>0.2906556530717604</v>
+        <v>0.2872340425531915</v>
       </c>
       <c r="P17">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
       <c r="Q17">
-        <v>0.06443859448323222</v>
+        <v>0.03884093711467325</v>
       </c>
       <c r="R17">
-        <v>0.2906556530717604</v>
+        <v>0.2872340425531915</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2550,67 +2496,61 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>735</v>
+        <v>1412.7</v>
       </c>
       <c r="V17">
-        <v>0.8412498569302964</v>
+        <v>0.9677353062063297</v>
       </c>
       <c r="W17">
-        <v>0.05889686207735344</v>
+        <v>0.05726386632629381</v>
       </c>
       <c r="X17">
-        <v>0.0470561643812321</v>
+        <v>0.03164401943358078</v>
       </c>
       <c r="Y17">
-        <v>0.01184069769612134</v>
+        <v>0.02561984689271302</v>
       </c>
       <c r="Z17">
-        <v>0.1308260301055489</v>
+        <v>0.1185772317447736</v>
       </c>
       <c r="AA17">
-        <v>0.002256321702004709</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.03239531105509501</v>
+        <v>0.02437252335768278</v>
       </c>
       <c r="AC17">
-        <v>-0.0301389893530903</v>
+        <v>-0.02437252335768278</v>
       </c>
       <c r="AD17">
-        <v>2351.5</v>
+        <v>2735.6</v>
       </c>
       <c r="AE17">
-        <v>27.50993211885092</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>2379.009932118851</v>
+        <v>2735.6</v>
       </c>
       <c r="AG17">
-        <v>1644.009932118851</v>
+        <v>1322.9</v>
       </c>
       <c r="AH17">
-        <v>0.7313932019044618</v>
+        <v>0.652047480573962</v>
       </c>
       <c r="AI17">
-        <v>0.2833196915711752</v>
+        <v>0.3064720314583076</v>
       </c>
       <c r="AJ17">
-        <v>0.6529782923544681</v>
+        <v>0.4754015883853811</v>
       </c>
       <c r="AK17">
-        <v>0.2145692062010719</v>
+        <v>0.1760720845422844</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>136.7151162790698</v>
-      </c>
-      <c r="AP17">
-        <v>95.58197279760762</v>
       </c>
     </row>
     <row r="18">
@@ -2621,7 +2561,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gome Finance Technology Co., Ltd. (SEHK:628)</t>
+          <t>Doyen International Holdings Limited (SEHK:668)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2630,22 +2570,22 @@
         </is>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I18">
-        <v>0.04828615170057758</v>
+        <v>-0</v>
       </c>
       <c r="J18">
-        <v>0.04828615170057758</v>
+        <v>-0</v>
       </c>
       <c r="K18">
-        <v>-2.86</v>
+        <v>-10.2</v>
       </c>
       <c r="L18">
-        <v>-0.4956672443674177</v>
+        <v>10.40816326530612</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2669,67 +2609,64 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>54.7</v>
+        <v>4.44</v>
       </c>
       <c r="V18">
-        <v>0.2425720620842572</v>
+        <v>0.0965217391304348</v>
       </c>
       <c r="W18">
-        <v>-0.01097467382962394</v>
+        <v>-0.111353711790393</v>
       </c>
       <c r="X18">
-        <v>0.03144877066430943</v>
+        <v>0.02182315642485964</v>
       </c>
       <c r="Y18">
-        <v>-0.04242344449393338</v>
+        <v>-0.1331768682152527</v>
       </c>
       <c r="Z18">
-        <v>0.01740143000938381</v>
+        <v>-0.008596491228070175</v>
       </c>
       <c r="AA18">
-        <v>0.0008402480892400901</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.03164610922801019</v>
+        <v>0.02446018934779442</v>
       </c>
       <c r="AC18">
-        <v>-0.0308058611387701</v>
+        <v>-0.02446018934779442</v>
       </c>
       <c r="AD18">
-        <v>117.6</v>
+        <v>24.1</v>
       </c>
       <c r="AE18">
-        <v>1.081944523438337</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>118.6819445234383</v>
+        <v>24.1</v>
       </c>
       <c r="AG18">
-        <v>63.98194452343833</v>
+        <v>19.66</v>
       </c>
       <c r="AH18">
-        <v>0.3448232727250347</v>
+        <v>0.3437945791726106</v>
       </c>
       <c r="AI18">
-        <v>0.3191387650603141</v>
+        <v>0.1881342701014832</v>
       </c>
       <c r="AJ18">
-        <v>0.2210222286186762</v>
+        <v>0.2994212610417302</v>
       </c>
       <c r="AK18">
-        <v>0.2017200084310296</v>
+        <v>0.1589843118227398</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>237.5757575757576</v>
-      </c>
-      <c r="AP18">
-        <v>129.2564535827037</v>
+        <v>-1.56</v>
+      </c>
+      <c r="AQ18">
+        <v>-0</v>
       </c>
     </row>
     <row r="19">
@@ -2740,7 +2677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>China Shandong Hi-Speed Financial Group Limited (SEHK:412)</t>
+          <t>Gome Finance Technology Co., Ltd. (SEHK:628)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2749,31 +2686,31 @@
         </is>
       </c>
       <c r="G19">
-        <v>0.065474552957359</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.065474552957359</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0700776086960391</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0700776086960391</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>-120.1</v>
+        <v>-0.715</v>
       </c>
       <c r="L19">
-        <v>-1.651994497936726</v>
+        <v>-0.08532219570405727</v>
       </c>
       <c r="M19">
-        <v>2.92</v>
+        <v>-0</v>
       </c>
       <c r="N19">
-        <v>0.00389177662268426</v>
+        <v>-0</v>
       </c>
       <c r="O19">
-        <v>-0.02431307243963364</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>-0</v>
@@ -2785,79 +2722,64 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>2.92</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>52.8</v>
+        <v>19.6</v>
       </c>
       <c r="V19">
-        <v>0.0703718512594962</v>
+        <v>0.1102982554867755</v>
       </c>
       <c r="W19">
-        <v>-0.1632015219459166</v>
+        <v>-0.002823854660347551</v>
       </c>
       <c r="X19">
-        <v>0.03781477486925623</v>
+        <v>0.02355071990252319</v>
       </c>
       <c r="Y19">
-        <v>-0.2010162968151728</v>
+        <v>-0.02637457456287074</v>
       </c>
       <c r="Z19">
-        <v>0.05054835617299815</v>
+        <v>0.02651059791205315</v>
       </c>
       <c r="AA19">
-        <v>0.003542307924119376</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.03441291640215903</v>
+        <v>0.02461086253121896</v>
       </c>
       <c r="AC19">
-        <v>-0.03087060847803965</v>
+        <v>-0.02461086253121896</v>
       </c>
       <c r="AD19">
-        <v>1066</v>
+        <v>135.3</v>
       </c>
       <c r="AE19">
-        <v>1.126789238989788</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>1067.12678923899</v>
+        <v>135.3</v>
       </c>
       <c r="AG19">
-        <v>1014.32678923899</v>
+        <v>115.7</v>
       </c>
       <c r="AH19">
-        <v>0.5871635630978166</v>
+        <v>0.4322683706070288</v>
       </c>
       <c r="AI19">
-        <v>0.6953203636773263</v>
+        <v>0.3497931747673216</v>
       </c>
       <c r="AJ19">
-        <v>0.5748109432683083</v>
+        <v>0.3943421949556919</v>
       </c>
       <c r="AK19">
-        <v>0.6844648444204687</v>
+        <v>0.3150871459694989</v>
       </c>
       <c r="AL19">
-        <v>32.7</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>31.46</v>
-      </c>
-      <c r="AN19">
-        <v>179.7639123102867</v>
-      </c>
-      <c r="AO19">
-        <v>0.1269113149847095</v>
-      </c>
-      <c r="AP19">
-        <v>171.0500487755464</v>
-      </c>
-      <c r="AQ19">
-        <v>0.1319135410044501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2868,7 +2790,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wealthy Way Group Limited (SEHK:3848)</t>
+          <t>Hong Kong Finance Group Limited (SEHK:1273)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2876,6 +2798,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D20">
+        <v>0.0411</v>
+      </c>
+      <c r="E20">
+        <v>0.0257</v>
+      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -2883,34 +2811,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03770416784237356</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02894611310733403</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>3.54</v>
+        <v>7.45</v>
       </c>
       <c r="L20">
-        <v>0.354</v>
+        <v>0.5137931034482759</v>
       </c>
       <c r="M20">
-        <v>0.546</v>
+        <v>1.39</v>
       </c>
       <c r="N20">
-        <v>0.004136363636363637</v>
+        <v>0.06495327102803738</v>
       </c>
       <c r="O20">
-        <v>0.1542372881355932</v>
+        <v>0.1865771812080537</v>
       </c>
       <c r="P20">
-        <v>0.546</v>
+        <v>1.39</v>
       </c>
       <c r="Q20">
-        <v>0.004136363636363637</v>
+        <v>0.06495327102803738</v>
       </c>
       <c r="R20">
-        <v>0.1542372881355932</v>
+        <v>0.1865771812080537</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2919,67 +2847,61 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>0.04393939393939394</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="W20">
-        <v>0.0502840909090909</v>
+        <v>0.09802631578947368</v>
       </c>
       <c r="X20">
-        <v>0.03443309579666377</v>
+        <v>0.03565428546463474</v>
       </c>
       <c r="Y20">
-        <v>0.01585099511242713</v>
+        <v>0.06237203032483894</v>
       </c>
       <c r="Z20">
-        <v>0.06189467334114513</v>
+        <v>0.09945812469991083</v>
       </c>
       <c r="AA20">
-        <v>0.001791610215274279</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.03326033735117433</v>
+        <v>0.02491880567727296</v>
       </c>
       <c r="AC20">
-        <v>-0.03146872713590006</v>
+        <v>-0.02491880567727296</v>
       </c>
       <c r="AD20">
-        <v>123.8</v>
+        <v>51.9</v>
       </c>
       <c r="AE20">
-        <v>1.114791607881322</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>124.9147916078813</v>
+        <v>51.9</v>
       </c>
       <c r="AG20">
-        <v>119.1147916078813</v>
+        <v>50</v>
       </c>
       <c r="AH20">
-        <v>0.486210976122129</v>
+        <v>0.7080491132332879</v>
       </c>
       <c r="AI20">
-        <v>0.5315188493169392</v>
+        <v>0.3847294292068199</v>
       </c>
       <c r="AJ20">
-        <v>0.4743439876448236</v>
+        <v>0.7002801120448179</v>
       </c>
       <c r="AK20">
-        <v>0.519664506694016</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>206.3333333333333</v>
-      </c>
-      <c r="AP20">
-        <v>198.5246526798022</v>
       </c>
     </row>
     <row r="21">
@@ -2990,7 +2912,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Global International Credit Group Limited (SEHK:1669)</t>
+          <t>Sun Hung Kai &amp; Co. Limited (SEHK:86)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2998,6 +2920,15 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D21">
+        <v>-0.0361</v>
+      </c>
+      <c r="E21">
+        <v>-0.166</v>
+      </c>
+      <c r="F21">
+        <v>0.04</v>
+      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -3005,91 +2936,91 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.008729866043320156</v>
+        <v>0.002192701336656071</v>
       </c>
       <c r="J21">
-        <v>0.006871971475126379</v>
+        <v>0.00202443115294379</v>
       </c>
       <c r="K21">
-        <v>9.26</v>
+        <v>226</v>
       </c>
       <c r="L21">
-        <v>0.57875</v>
+        <v>0.7490884985084522</v>
       </c>
       <c r="M21">
-        <v>2.61</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="N21">
-        <v>0.07957317073170732</v>
+        <v>0.08679583781844276</v>
       </c>
       <c r="O21">
-        <v>0.2818574514038877</v>
+        <v>0.3211061946902655</v>
       </c>
       <c r="P21">
-        <v>2.61</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="Q21">
-        <v>0.07957317073170732</v>
+        <v>0.08025355818681974</v>
       </c>
       <c r="R21">
-        <v>0.2818574514038877</v>
+        <v>0.2969026548672566</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5.469999999999999</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.07537549951770703</v>
       </c>
       <c r="U21">
-        <v>11</v>
+        <v>958.1</v>
       </c>
       <c r="V21">
-        <v>0.3353658536585366</v>
+        <v>1.145915560339672</v>
       </c>
       <c r="W21">
-        <v>0.1017582417582418</v>
+        <v>0.08961141950832673</v>
       </c>
       <c r="X21">
-        <v>0.03526214929983069</v>
+        <v>0.03815710919860154</v>
       </c>
       <c r="Y21">
-        <v>0.06649609245841107</v>
+        <v>0.05145431030972519</v>
       </c>
       <c r="Z21">
-        <v>0.13792317438785</v>
+        <v>0.08170168474730106</v>
       </c>
       <c r="AA21">
-        <v>0.0009478041201521863</v>
+        <v>0.0001653994358504287</v>
       </c>
       <c r="AB21">
-        <v>0.03359211130550335</v>
+        <v>0.0251787586774562</v>
       </c>
       <c r="AC21">
-        <v>-0.03264430718535117</v>
+        <v>-0.02501335924160577</v>
       </c>
       <c r="AD21">
-        <v>34.7</v>
+        <v>2314.6</v>
       </c>
       <c r="AE21">
-        <v>0.1666107165343874</v>
+        <v>0.8023100336543164</v>
       </c>
       <c r="AF21">
-        <v>34.86661071653439</v>
+        <v>2315.402310033654</v>
       </c>
       <c r="AG21">
-        <v>23.86661071653439</v>
+        <v>1357.302310033655</v>
       </c>
       <c r="AH21">
-        <v>0.5152705351623988</v>
+        <v>0.7346979574350776</v>
       </c>
       <c r="AI21">
-        <v>0.2624181540305932</v>
+        <v>0.432082652865095</v>
       </c>
       <c r="AJ21">
-        <v>0.4211758990832057</v>
+        <v>0.6188113798479717</v>
       </c>
       <c r="AK21">
-        <v>0.1958420815694045</v>
+        <v>0.3084355764071019</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3098,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>200.578034682081</v>
+        <v>2815.815085158151</v>
       </c>
       <c r="AP21">
-        <v>137.9572873788115</v>
+        <v>1651.219355272086</v>
       </c>
     </row>
     <row r="22">
@@ -3112,7 +3043,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>China Tonghai International Financial Limited (SEHK:952)</t>
+          <t>Styland Holdings Limited (SEHK:211)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3120,98 +3051,101 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D22">
+        <v>-0.127</v>
+      </c>
       <c r="G22">
-        <v>0.002491017964071856</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01853833547134202</v>
+        <v>0.003092720255698317</v>
       </c>
       <c r="J22">
-        <v>0.01710887345909396</v>
+        <v>0.003092720255698317</v>
       </c>
       <c r="K22">
-        <v>15.3</v>
+        <v>-6.68</v>
       </c>
       <c r="L22">
-        <v>0.1832335329341317</v>
+        <v>-1.601918465227818</v>
       </c>
       <c r="M22">
-        <v>5.18</v>
+        <v>0.627</v>
       </c>
       <c r="N22">
-        <v>0.01563537579233323</v>
+        <v>0.01971698113207547</v>
       </c>
       <c r="O22">
-        <v>0.3385620915032679</v>
+        <v>-0.09386227544910181</v>
       </c>
       <c r="P22">
-        <v>-0</v>
+        <v>0.627</v>
       </c>
       <c r="Q22">
-        <v>-0</v>
+        <v>0.01971698113207547</v>
       </c>
       <c r="R22">
-        <v>-0</v>
+        <v>-0.09386227544910181</v>
       </c>
       <c r="S22">
-        <v>5.18</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>31</v>
+        <v>16.1</v>
       </c>
       <c r="V22">
-        <v>0.09357078176878961</v>
+        <v>0.5062893081761006</v>
       </c>
       <c r="W22">
-        <v>0.02081632653061224</v>
+        <v>-0.09766081871345028</v>
       </c>
       <c r="X22">
-        <v>0.03383137241400076</v>
+        <v>0.02535862086041082</v>
       </c>
       <c r="Y22">
-        <v>-0.01301504588338851</v>
+        <v>-0.1230194395738611</v>
       </c>
       <c r="Z22">
-        <v>0.09784503689258923</v>
+        <v>0.04979371028089458</v>
       </c>
       <c r="AA22">
-        <v>0.00167401835479569</v>
+        <v>0.0001539980163920962</v>
       </c>
       <c r="AB22">
-        <v>0.03446207622087007</v>
+        <v>0.02568251657455208</v>
       </c>
       <c r="AC22">
-        <v>-0.03278805786607438</v>
+        <v>-0.02552851855815999</v>
       </c>
       <c r="AD22">
-        <v>271.7</v>
+        <v>32.1</v>
       </c>
       <c r="AE22">
-        <v>13.76024494071471</v>
+        <v>0.01551678266869008</v>
       </c>
       <c r="AF22">
-        <v>285.4602449407147</v>
+        <v>32.11551678266869</v>
       </c>
       <c r="AG22">
-        <v>254.4602449407147</v>
+        <v>16.01551678266869</v>
       </c>
       <c r="AH22">
-        <v>0.4628382702717069</v>
+        <v>0.5024682330563136</v>
       </c>
       <c r="AI22">
-        <v>0.2766730413780552</v>
+        <v>0.3358818512236496</v>
       </c>
       <c r="AJ22">
-        <v>0.4344102337748592</v>
+        <v>0.3349439232344281</v>
       </c>
       <c r="AK22">
-        <v>0.2542669397861513</v>
+        <v>0.2014137294289642</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3220,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>63.18604651162791</v>
+        <v>2006.25</v>
       </c>
       <c r="AP22">
-        <v>59.17680114900342</v>
+        <v>1000.969798916793</v>
       </c>
     </row>
     <row r="23">
@@ -3234,7 +3168,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shougang Concord Grand (Group) Limited (SEHK:730)</t>
+          <t>VCREDIT Holdings Limited (SEHK:2003)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3242,38 +3176,32 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D23">
-        <v>0.05860000000000001</v>
-      </c>
-      <c r="E23">
-        <v>-0.115</v>
-      </c>
       <c r="G23">
-        <v>0</v>
+        <v>-0.237037037037037</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I23">
-        <v>0.004450862485521172</v>
+        <v>-0</v>
       </c>
       <c r="J23">
-        <v>0.00227884159258684</v>
+        <v>-0</v>
       </c>
       <c r="K23">
-        <v>0.786</v>
+        <v>-144.8</v>
       </c>
       <c r="L23">
-        <v>0.08665931642778391</v>
+        <v>2.681481481481482</v>
       </c>
       <c r="M23">
-        <v>-0</v>
+        <v>1.56</v>
       </c>
       <c r="N23">
-        <v>-0</v>
+        <v>0.007113543091655267</v>
       </c>
       <c r="O23">
-        <v>-0</v>
+        <v>-0.01077348066298343</v>
       </c>
       <c r="P23">
         <v>-0</v>
@@ -3282,73 +3210,70 @@
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.56</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>136.9</v>
+        <v>256.8</v>
       </c>
       <c r="V23">
-        <v>1.939093484419264</v>
+        <v>1.170998632010944</v>
       </c>
       <c r="W23">
-        <v>0.005208747514910537</v>
+        <v>-0.3395872420262664</v>
       </c>
       <c r="X23">
-        <v>0.03413496485622204</v>
+        <v>0.04800221073740124</v>
       </c>
       <c r="Y23">
-        <v>-0.0289262173413115</v>
+        <v>-0.3875894527636677</v>
       </c>
       <c r="Z23">
-        <v>0.04937447564280925</v>
+        <v>-0.04186695611722748</v>
       </c>
       <c r="AA23">
-        <v>0.0001125166087069996</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.03313109131873079</v>
+        <v>0.02586248009205323</v>
       </c>
       <c r="AC23">
-        <v>-0.03301857471002379</v>
+        <v>-0.02586248009205323</v>
       </c>
       <c r="AD23">
-        <v>63.8</v>
+        <v>904.1</v>
       </c>
       <c r="AE23">
-        <v>0.04815338628161487</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>63.84815338628161</v>
+        <v>904.1</v>
       </c>
       <c r="AG23">
-        <v>-73.0518466137184</v>
+        <v>647.3</v>
       </c>
       <c r="AH23">
-        <v>0.4748905193427249</v>
+        <v>0.8047890332917927</v>
       </c>
       <c r="AI23">
-        <v>0.2291353903134281</v>
+        <v>0.7561261185916199</v>
       </c>
       <c r="AJ23">
-        <v>29.79462345033485</v>
+        <v>0.7469420724671129</v>
       </c>
       <c r="AK23">
-        <v>-0.5153636563761285</v>
+        <v>0.6894237938012567</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>1276</v>
-      </c>
-      <c r="AP23">
-        <v>-1461.036932274368</v>
       </c>
     </row>
     <row r="24">
@@ -3359,7 +3284,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hao Tian Development Group Limited (SEHK:474)</t>
+          <t>Wealthy Way Group Limited (SEHK:3848)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3367,9 +3292,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D24">
-        <v>0.402</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -3377,100 +3299,97 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.08085865469540382</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08085865469540382</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-5.16</v>
+        <v>5.33</v>
       </c>
       <c r="L24">
-        <v>-0.4372881355932203</v>
+        <v>0.299438202247191</v>
       </c>
       <c r="M24">
-        <v>-0</v>
+        <v>1.94</v>
       </c>
       <c r="N24">
-        <v>-0</v>
+        <v>0.01283068783068783</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.3639774859287054</v>
       </c>
       <c r="P24">
-        <v>-0</v>
+        <v>1.94</v>
       </c>
       <c r="Q24">
-        <v>-0</v>
+        <v>0.01283068783068783</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.3639774859287054</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
       <c r="U24">
-        <v>33.5</v>
+        <v>14.1</v>
       </c>
       <c r="V24">
-        <v>0.205900430239705</v>
+        <v>0.09325396825396826</v>
       </c>
       <c r="W24">
-        <v>-0.01641221374045802</v>
+        <v>0.06307692307692307</v>
       </c>
       <c r="X24">
-        <v>0.04364597285903754</v>
+        <v>0.0235977242250241</v>
       </c>
       <c r="Y24">
-        <v>-0.06005818659949556</v>
+        <v>0.03947919885189897</v>
       </c>
       <c r="Z24">
-        <v>0.02106280262509455</v>
+        <v>0.08790123456790123</v>
       </c>
       <c r="AA24">
-        <v>0.001703109884379965</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.03560572267163292</v>
+        <v>0.02615852883891902</v>
       </c>
       <c r="AC24">
-        <v>-0.03390261278725296</v>
+        <v>-0.02615852883891902</v>
       </c>
       <c r="AD24">
-        <v>363.5</v>
+        <v>116.1</v>
       </c>
       <c r="AE24">
-        <v>1.429339372971174</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>364.9293393729712</v>
+        <v>116.1</v>
       </c>
       <c r="AG24">
-        <v>331.4293393729712</v>
+        <v>102</v>
       </c>
       <c r="AH24">
-        <v>0.6916395888952066</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="AI24">
-        <v>0.5083081570279535</v>
+        <v>0.500862812769629</v>
       </c>
       <c r="AJ24">
-        <v>0.6707339819034844</v>
+        <v>0.4028436018957346</v>
       </c>
       <c r="AK24">
-        <v>0.4842418644364439</v>
+        <v>0.4685346807533303</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>293.1451612903226</v>
-      </c>
-      <c r="AP24">
-        <v>267.2817253007832</v>
       </c>
     </row>
     <row r="25">
@@ -3481,7 +3400,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Doyen International Holdings Limited (SEHK:668)</t>
+          <t>Aceso Life Science Group Limited (SEHK:474)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3489,26 +3408,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D25">
-        <v>0.3</v>
-      </c>
       <c r="G25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I25">
-        <v>0.1207654757677262</v>
+        <v>-0</v>
       </c>
       <c r="J25">
-        <v>0.08106403325261401</v>
+        <v>-0</v>
       </c>
       <c r="K25">
-        <v>3.54</v>
+        <v>-86.5</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>1.913716814159292</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -3517,7 +3433,7 @@
         <v>-0</v>
       </c>
       <c r="O25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>-0</v>
@@ -3526,76 +3442,67 @@
         <v>-0</v>
       </c>
       <c r="R25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>13.6</v>
+        <v>39.9</v>
       </c>
       <c r="V25">
-        <v>0.2214983713355049</v>
+        <v>0.1821917808219178</v>
       </c>
       <c r="W25">
-        <v>0.03881578947368421</v>
+        <v>-0.2480642386005162</v>
       </c>
       <c r="X25">
-        <v>0.03189456112871995</v>
+        <v>0.02823277674941799</v>
       </c>
       <c r="Y25">
-        <v>0.00692122834496426</v>
+        <v>-0.2762970153499342</v>
       </c>
       <c r="Z25">
-        <v>0.01018404786563592</v>
+        <v>-0.0678576790271731</v>
       </c>
       <c r="AA25">
-        <v>0.0008255599948261229</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.03581055065795261</v>
+        <v>0.0269302677797624</v>
       </c>
       <c r="AC25">
-        <v>-0.03498499066312648</v>
+        <v>-0.0269302677797624</v>
       </c>
       <c r="AD25">
-        <v>36</v>
+        <v>307.7</v>
       </c>
       <c r="AE25">
-        <v>0.1674836929704154</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>36.16748369297041</v>
+        <v>307.7</v>
       </c>
       <c r="AG25">
-        <v>22.56748369297041</v>
+        <v>267.8</v>
       </c>
       <c r="AH25">
-        <v>0.3706919797868706</v>
+        <v>0.5842035314220618</v>
       </c>
       <c r="AI25">
-        <v>0.2356687085932006</v>
+        <v>0.4873297434273044</v>
       </c>
       <c r="AJ25">
-        <v>0.2687645586175845</v>
+        <v>0.5501232539030403</v>
       </c>
       <c r="AK25">
-        <v>0.1613490362242402</v>
+        <v>0.4527472527472527</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>-9.44</v>
-      </c>
-      <c r="AN25">
-        <v>204.5454545454546</v>
-      </c>
-      <c r="AP25">
-        <v>128.2243391646046</v>
-      </c>
-      <c r="AQ25">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3606,7 +3513,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hong Kong Finance Group Limited (SEHK:1273)</t>
+          <t>CSSC (Hong Kong) Shipping Company Limited (SEHK:3877)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3614,12 +3521,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D26">
-        <v>0.05</v>
-      </c>
-      <c r="E26">
-        <v>-0.00795</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -3633,28 +3534,28 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>6.34</v>
+        <v>120.8</v>
       </c>
       <c r="L26">
-        <v>0.4594202898550724</v>
+        <v>0.7728726807421624</v>
       </c>
       <c r="M26">
-        <v>1.27</v>
+        <v>63.3</v>
       </c>
       <c r="N26">
-        <v>0.05226337448559671</v>
+        <v>0.0733827961975423</v>
       </c>
       <c r="O26">
-        <v>0.2003154574132492</v>
+        <v>0.5240066225165563</v>
       </c>
       <c r="P26">
-        <v>1.27</v>
+        <v>63.3</v>
       </c>
       <c r="Q26">
-        <v>0.05226337448559671</v>
+        <v>0.0733827961975423</v>
       </c>
       <c r="R26">
-        <v>0.2003154574132492</v>
+        <v>0.5240066225165563</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3663,55 +3564,55 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>2.81</v>
+        <v>180.9</v>
       </c>
       <c r="V26">
-        <v>0.1156378600823045</v>
+        <v>0.2097148156735451</v>
       </c>
       <c r="W26">
-        <v>0.08904494382022471</v>
+        <v>0.1153111874761359</v>
       </c>
       <c r="X26">
-        <v>0.04893720393345159</v>
+        <v>0.03986914778203535</v>
       </c>
       <c r="Y26">
-        <v>0.04010773988677312</v>
+        <v>0.07544203969410058</v>
       </c>
       <c r="Z26">
-        <v>0.0982626032469382</v>
+        <v>0.04660246280449626</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.03626318871768357</v>
+        <v>0.02748184343086315</v>
       </c>
       <c r="AC26">
-        <v>-0.03626318871768357</v>
+        <v>-0.02748184343086315</v>
       </c>
       <c r="AD26">
-        <v>72.59999999999999</v>
+        <v>2591.8</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>72.59999999999999</v>
+        <v>2591.8</v>
       </c>
       <c r="AG26">
-        <v>69.78999999999999</v>
+        <v>2410.9</v>
       </c>
       <c r="AH26">
-        <v>0.7492260061919505</v>
+        <v>0.7502894858730894</v>
       </c>
       <c r="AI26">
-        <v>0.4885598923283984</v>
+        <v>0.7036242703950047</v>
       </c>
       <c r="AJ26">
-        <v>0.7417366351365714</v>
+        <v>0.7364899954177486</v>
       </c>
       <c r="AK26">
-        <v>0.4787022429521915</v>
+        <v>0.6883172500428253</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -3728,7 +3629,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VCREDIT Holdings Limited (SEHK:2003)</t>
+          <t>China Tonghai International Financial Limited (SEHK:952)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3737,31 +3638,31 @@
         </is>
       </c>
       <c r="G27">
-        <v>0.0633990410229089</v>
+        <v>0.004802110817941953</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.02557011843301091</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.01278505921650546</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>-1.52</v>
+        <v>-26.6</v>
       </c>
       <c r="L27">
-        <v>-0.008098028769312733</v>
+        <v>-0.7018469656992085</v>
       </c>
       <c r="M27">
-        <v>9.06</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="N27">
-        <v>0.02106486863520111</v>
+        <v>5.761843790012804e-05</v>
       </c>
       <c r="O27">
-        <v>-5.960526315789474</v>
+        <v>-0.0003383458646616541</v>
       </c>
       <c r="P27">
         <v>-0</v>
@@ -3773,73 +3674,67 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>9.06</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>275.2</v>
+        <v>36.7</v>
       </c>
       <c r="V27">
-        <v>0.6398511973959544</v>
+        <v>0.234955185659411</v>
       </c>
       <c r="W27">
-        <v>-0.004072883172561629</v>
+        <v>-0.03564250301487338</v>
       </c>
       <c r="X27">
-        <v>0.04668656630161377</v>
+        <v>0.03273790162174195</v>
       </c>
       <c r="Y27">
-        <v>-0.05075944947417541</v>
+        <v>-0.06838040463661532</v>
       </c>
       <c r="Z27">
-        <v>0.1175510961156605</v>
+        <v>0.03839918946301925</v>
       </c>
       <c r="AA27">
-        <v>0.001502897724803845</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.03832476837401069</v>
+        <v>0.02823006270420212</v>
       </c>
       <c r="AC27">
-        <v>-0.03682187064920684</v>
+        <v>-0.02823006270420212</v>
       </c>
       <c r="AD27">
-        <v>1138.6</v>
+        <v>316.2</v>
       </c>
       <c r="AE27">
-        <v>10.15244385061926</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1148.752443850619</v>
+        <v>316.2</v>
       </c>
       <c r="AG27">
-        <v>873.5524438506191</v>
+        <v>279.5</v>
       </c>
       <c r="AH27">
-        <v>0.727586956162261</v>
+        <v>0.6693480101608806</v>
       </c>
       <c r="AI27">
-        <v>0.7292960426372307</v>
+        <v>0.3036005760921747</v>
       </c>
       <c r="AJ27">
-        <v>0.6700807780257699</v>
+        <v>0.6414964425063117</v>
       </c>
       <c r="AK27">
-        <v>0.6719880007787432</v>
+        <v>0.2781648089171975</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>166.705710102489</v>
-      </c>
-      <c r="AP27">
-        <v>127.8993329210277</v>
       </c>
     </row>
     <row r="28">
@@ -3859,10 +3754,10 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.232</v>
+        <v>0.172</v>
       </c>
       <c r="E28">
-        <v>0.179</v>
+        <v>0.135</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3871,103 +3766,97 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>-0.001115648514010093</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>-0.0007587976503011472</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>678.6</v>
+        <v>664</v>
       </c>
       <c r="L28">
-        <v>0.1774349588181462</v>
+        <v>0.1978545887961859</v>
       </c>
       <c r="M28">
-        <v>301.7</v>
+        <v>236.7</v>
       </c>
       <c r="N28">
-        <v>0.08129665058877422</v>
+        <v>0.05779655222933047</v>
       </c>
       <c r="O28">
-        <v>0.4445918066607721</v>
+        <v>0.3564759036144578</v>
       </c>
       <c r="P28">
-        <v>217.2</v>
+        <v>209.2</v>
       </c>
       <c r="Q28">
-        <v>0.05852712133868664</v>
+        <v>0.0510817014211066</v>
       </c>
       <c r="R28">
-        <v>0.3200707338638373</v>
+        <v>0.3150602409638554</v>
       </c>
       <c r="S28">
-        <v>84.5</v>
+        <v>27.5</v>
       </c>
       <c r="T28">
-        <v>0.2800795492210806</v>
+        <v>0.1161808196028728</v>
       </c>
       <c r="U28">
-        <v>656.4</v>
+        <v>1128.6</v>
       </c>
       <c r="V28">
-        <v>0.1768747810622187</v>
+        <v>0.2755774771695072</v>
       </c>
       <c r="W28">
-        <v>0.1249424631303739</v>
+        <v>0.1185312126242882</v>
       </c>
       <c r="X28">
-        <v>0.07385431035225691</v>
+        <v>0.06583094517264611</v>
       </c>
       <c r="Y28">
-        <v>0.05108815277811703</v>
+        <v>0.05270026745164209</v>
       </c>
       <c r="Z28">
-        <v>0.12034096095927</v>
+        <v>0.1171816350259958</v>
       </c>
       <c r="AA28">
-        <v>-9.131443841087614e-05</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.0412208274226963</v>
+        <v>0.03459587907209064</v>
       </c>
       <c r="AC28">
-        <v>-0.04131214186110718</v>
+        <v>-0.03459587907209064</v>
       </c>
       <c r="AD28">
-        <v>23977</v>
+        <v>26921.2</v>
       </c>
       <c r="AE28">
-        <v>124.833988709158</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>24101.83398870916</v>
+        <v>26921.2</v>
       </c>
       <c r="AG28">
-        <v>23445.43398870916</v>
+        <v>25792.6</v>
       </c>
       <c r="AH28">
-        <v>0.8665692730760968</v>
+        <v>0.867961027320854</v>
       </c>
       <c r="AI28">
-        <v>0.804648806796432</v>
+        <v>0.8062798373136384</v>
       </c>
       <c r="AJ28">
-        <v>0.8633441218403292</v>
+        <v>0.8629751070663811</v>
       </c>
       <c r="AK28">
-        <v>0.8002719337435882</v>
+        <v>0.7995028021623767</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>1158.309178743961</v>
-      </c>
-      <c r="AP28">
-        <v>1132.629661290297</v>
       </c>
     </row>
     <row r="29">
@@ -3978,7 +3867,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dingyi Group Investment Limited (SEHK:508)</t>
+          <t>China Properties Investment Holdings Limited (SEHK:736)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3987,34 +3876,34 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.451</v>
+        <v>0.306</v>
       </c>
       <c r="G29">
-        <v>1.287458379578246</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1.287458379578246</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>-0.3272285747279217</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-0.3272285747279217</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>-40.9</v>
+        <v>-6.36</v>
       </c>
       <c r="L29">
-        <v>-4.539400665926748</v>
+        <v>-1.042622950819672</v>
       </c>
       <c r="M29">
-        <v>1.01</v>
+        <v>-0</v>
       </c>
       <c r="N29">
-        <v>0.004570135746606335</v>
+        <v>-0</v>
       </c>
       <c r="O29">
-        <v>-0.02469437652811736</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>-0</v>
@@ -4026,79 +3915,64 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1.01</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>2.52</v>
+        <v>0.89</v>
       </c>
       <c r="V29">
-        <v>0.0114027149321267</v>
+        <v>0.09063136456211812</v>
       </c>
       <c r="W29">
-        <v>-0.2292600896860987</v>
+        <v>-0.07625899280575539</v>
       </c>
       <c r="X29">
-        <v>0.03278391231681797</v>
+        <v>0.03312392430483112</v>
       </c>
       <c r="Y29">
-        <v>-0.2620440020029166</v>
+        <v>-0.1093829171105865</v>
       </c>
       <c r="Z29">
-        <v>0.02722040833852843</v>
+        <v>0.06431546206969266</v>
       </c>
       <c r="AA29">
-        <v>-0.008907295424128693</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.03378808286999012</v>
+        <v>0.03684255733564042</v>
       </c>
       <c r="AC29">
-        <v>-0.04269537829411881</v>
+        <v>-0.03684255733564042</v>
       </c>
       <c r="AD29">
-        <v>153.8</v>
+        <v>20.4</v>
       </c>
       <c r="AE29">
-        <v>4.041647291492874</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>157.8416472914929</v>
+        <v>20.4</v>
       </c>
       <c r="AG29">
-        <v>155.3216472914929</v>
+        <v>19.51</v>
       </c>
       <c r="AH29">
-        <v>0.4166428068824346</v>
+        <v>0.6750496360026472</v>
       </c>
       <c r="AI29">
-        <v>0.4807238088543952</v>
+        <v>0.2013820335636722</v>
       </c>
       <c r="AJ29">
-        <v>0.4127364142068159</v>
+        <v>0.6651892260484146</v>
       </c>
       <c r="AK29">
-        <v>0.4767075747810458</v>
+        <v>0.1943033562394184</v>
       </c>
       <c r="AL29">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>19.18</v>
-      </c>
-      <c r="AN29">
-        <v>-113.0882352941177</v>
-      </c>
-      <c r="AO29">
-        <v>-0.2010416666666667</v>
-      </c>
-      <c r="AP29">
-        <v>-114.2070935966859</v>
-      </c>
-      <c r="AQ29">
-        <v>-0.2012513034410845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4109,7 +3983,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PT International Development Corporation Limited (SEHK:372)</t>
+          <t>Dingyi Group Investment Limited (SEHK:508)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4118,25 +3992,25 @@
         </is>
       </c>
       <c r="D30">
-        <v>1.788</v>
+        <v>0.392</v>
       </c>
       <c r="G30">
-        <v>-0.02805555555555556</v>
+        <v>-0.4612676056338028</v>
       </c>
       <c r="H30">
-        <v>-0.02805555555555556</v>
+        <v>-0.4612676056338028</v>
       </c>
       <c r="I30">
-        <v>-0.02961867073758125</v>
+        <v>-0.272887323943662</v>
       </c>
       <c r="J30">
-        <v>-0.02961867073758125</v>
+        <v>-0.272887323943662</v>
       </c>
       <c r="K30">
-        <v>-99</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="L30">
-        <v>-0.6875</v>
+        <v>-0.3390845070422536</v>
       </c>
       <c r="M30">
         <v>-0</v>
@@ -4160,73 +4034,73 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>13.5</v>
+        <v>32.8</v>
       </c>
       <c r="V30">
-        <v>0.1303088803088803</v>
+        <v>0.2658022690437601</v>
       </c>
       <c r="W30">
-        <v>-0.5002526528549772</v>
+        <v>-0.05648093841642229</v>
       </c>
       <c r="X30">
-        <v>0.02789342681637988</v>
+        <v>0.02866430480554209</v>
       </c>
       <c r="Y30">
-        <v>-0.5281460796713571</v>
+        <v>-0.08514524322196439</v>
       </c>
       <c r="Z30">
-        <v>0.7573190032811566</v>
+        <v>0.08825905898439927</v>
       </c>
       <c r="AA30">
-        <v>-0.02243078220149779</v>
+        <v>-0.02408477842003853</v>
       </c>
       <c r="AB30">
-        <v>0.0280778870050543</v>
+        <v>0.0270830611953976</v>
       </c>
       <c r="AC30">
-        <v>-0.05050866920655209</v>
+        <v>-0.05116783961543613</v>
       </c>
       <c r="AD30">
-        <v>1.06</v>
+        <v>180.7</v>
       </c>
       <c r="AE30">
-        <v>1.625442931058499</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>2.685442931058499</v>
+        <v>180.7</v>
       </c>
       <c r="AG30">
-        <v>-10.8145570689415</v>
+        <v>147.9</v>
       </c>
       <c r="AH30">
-        <v>0.02526632864295817</v>
+        <v>0.5942124301216705</v>
       </c>
       <c r="AI30">
-        <v>0.02735072380275454</v>
+        <v>0.4997234513274336</v>
       </c>
       <c r="AJ30">
-        <v>-0.1165544586231801</v>
+        <v>0.5451529671949871</v>
       </c>
       <c r="AK30">
-        <v>-0.1277026687779801</v>
+        <v>0.4498175182481752</v>
       </c>
       <c r="AL30">
-        <v>0.112</v>
+        <v>18.4</v>
       </c>
       <c r="AM30">
-        <v>-0.015</v>
+        <v>18.375</v>
       </c>
       <c r="AN30">
-        <v>-0.2834224598930482</v>
+        <v>-25.37921348314607</v>
       </c>
       <c r="AO30">
-        <v>-45.98214285714286</v>
+        <v>-0.4211956521739131</v>
       </c>
       <c r="AP30">
-        <v>2.891592799182219</v>
+        <v>-20.77247191011235</v>
       </c>
       <c r="AQ30">
-        <v>343.3333333333334</v>
+        <v>-0.4217687074829932</v>
       </c>
     </row>
     <row r="31">
@@ -4237,7 +4111,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>China Properties Investment Holdings Limited (SEHK:736)</t>
+          <t>China Ever Grand Financial Leasing Group Co., Ltd. (SEHK:379)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4246,25 +4120,25 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.9440000000000001</v>
+        <v>-0.078</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>-0.7119565217391305</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-0.7119565217391305</v>
       </c>
       <c r="I31">
-        <v>0.06244526740127948</v>
+        <v>-0.8519021739130433</v>
       </c>
       <c r="J31">
-        <v>0.06244526740127948</v>
+        <v>-0.8519021739130433</v>
       </c>
       <c r="K31">
-        <v>-8.17</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="L31">
-        <v>-1.430823117338003</v>
+        <v>-1.271739130434782</v>
       </c>
       <c r="M31">
         <v>-0</v>
@@ -4288,67 +4162,73 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>4.23</v>
+        <v>1.38</v>
       </c>
       <c r="V31">
-        <v>0.2801324503311259</v>
+        <v>0.0345</v>
       </c>
       <c r="W31">
-        <v>-0.09037610619469026</v>
+        <v>-0.09425981873111783</v>
       </c>
       <c r="X31">
-        <v>0.03587893479881055</v>
+        <v>0.03101510134773573</v>
       </c>
       <c r="Y31">
-        <v>-0.1262550409935008</v>
+        <v>-0.1252749200788535</v>
       </c>
       <c r="Z31">
-        <v>0.06007036694394243</v>
+        <v>0.04237190558434081</v>
       </c>
       <c r="AA31">
-        <v>0.003751110126707465</v>
+        <v>-0.03609671848013817</v>
       </c>
       <c r="AB31">
-        <v>0.0661936595006727</v>
+        <v>0.02780121087858947</v>
       </c>
       <c r="AC31">
-        <v>-0.06244254937396523</v>
+        <v>-0.06389792935872764</v>
       </c>
       <c r="AD31">
-        <v>16</v>
+        <v>71.5</v>
       </c>
       <c r="AE31">
-        <v>1.362187615693471</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>17.36218761569347</v>
+        <v>71.5</v>
       </c>
       <c r="AG31">
-        <v>13.13218761569347</v>
+        <v>70.12</v>
       </c>
       <c r="AH31">
-        <v>0.5348434252564026</v>
+        <v>0.6412556053811659</v>
       </c>
       <c r="AI31">
-        <v>0.1723085616393401</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="AJ31">
-        <v>0.4651494880401568</v>
+        <v>0.6367598982927716</v>
       </c>
       <c r="AK31">
-        <v>0.1360394697359841</v>
+        <v>0.4027107741787273</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>-0.3699999999999999</v>
       </c>
       <c r="AN31">
-        <v>25.43720190779014</v>
+        <v>-11.81818181818182</v>
+      </c>
+      <c r="AO31">
+        <v>-7.936708860759492</v>
       </c>
       <c r="AP31">
-        <v>20.877881741961</v>
+        <v>-11.5900826446281</v>
+      </c>
+      <c r="AQ31">
+        <v>16.94594594594595</v>
       </c>
     </row>
     <row r="32">
@@ -4359,7 +4239,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Greater China Financial Holdings Limited (SEHK:431)</t>
+          <t>Asia Resources Holdings Limited (SEHK:899)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4367,26 +4247,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D32">
-        <v>0.664</v>
-      </c>
       <c r="G32">
-        <v>-0.09950980392156862</v>
+        <v>-2.957317073170731</v>
       </c>
       <c r="H32">
-        <v>-0.09950980392156862</v>
+        <v>-2.957317073170731</v>
       </c>
       <c r="I32">
-        <v>-0.1367279178400473</v>
+        <v>-1.859756097560976</v>
       </c>
       <c r="J32">
-        <v>-0.1367279178400473</v>
+        <v>-1.859756097560976</v>
       </c>
       <c r="K32">
-        <v>-5.42</v>
+        <v>-29.4</v>
       </c>
       <c r="L32">
-        <v>-0.2656862745098039</v>
+        <v>-4.48170731707317</v>
       </c>
       <c r="M32">
         <v>-0</v>
@@ -4410,73 +4287,73 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>26.6</v>
+        <v>2.44</v>
       </c>
       <c r="V32">
-        <v>0.1431646932185145</v>
+        <v>0.04870259481037924</v>
       </c>
       <c r="W32">
-        <v>-0.06083052749719417</v>
+        <v>-0.1093343250278914</v>
       </c>
       <c r="X32">
-        <v>0.02839553735584131</v>
+        <v>0.01803983688354795</v>
       </c>
       <c r="Y32">
-        <v>-0.08922606485303547</v>
+        <v>-0.1273741619114394</v>
       </c>
       <c r="Z32">
-        <v>0.3131415967208503</v>
+        <v>0.02472374233036347</v>
       </c>
       <c r="AA32">
-        <v>-0.04281519850874967</v>
+        <v>-0.04598013055341987</v>
       </c>
       <c r="AB32">
-        <v>0.0282735906702843</v>
+        <v>0.01808356370125447</v>
       </c>
       <c r="AC32">
-        <v>-0.07108878917903397</v>
+        <v>-0.06406369425467434</v>
       </c>
       <c r="AD32">
-        <v>14.5</v>
+        <v>0.192</v>
       </c>
       <c r="AE32">
-        <v>3.44624761968483</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>17.94624761968483</v>
+        <v>0.192</v>
       </c>
       <c r="AG32">
-        <v>-8.653752380315172</v>
+        <v>-2.248</v>
       </c>
       <c r="AH32">
-        <v>0.08808136507713019</v>
+        <v>0.00381770460510618</v>
       </c>
       <c r="AI32">
-        <v>0.181557196675121</v>
+        <v>0.0007462338510330674</v>
       </c>
       <c r="AJ32">
-        <v>-0.04885089295763074</v>
+        <v>-0.04697818273008442</v>
       </c>
       <c r="AK32">
-        <v>-0.1197813404215792</v>
+        <v>-0.008820805801013919</v>
       </c>
       <c r="AL32">
-        <v>1.04</v>
+        <v>0.066</v>
       </c>
       <c r="AM32">
-        <v>-1.08</v>
+        <v>-5.624000000000001</v>
       </c>
       <c r="AN32">
-        <v>-22.65625</v>
+        <v>-0.0161344537815126</v>
       </c>
       <c r="AO32">
-        <v>-3.634615384615384</v>
+        <v>-184.8484848484848</v>
       </c>
       <c r="AP32">
-        <v>13.52148809424246</v>
+        <v>0.1889075630252101</v>
       </c>
       <c r="AQ32">
-        <v>3.5</v>
+        <v>2.16927453769559</v>
       </c>
     </row>
     <row r="33">
@@ -4487,7 +4364,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>China Ever Grand Financial Leasing Group Co., Ltd. (SEHK:379)</t>
+          <t>Sunwah International Limited (TSX:SWH)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4496,25 +4373,25 @@
         </is>
       </c>
       <c r="D33">
-        <v>-0.259</v>
+        <v>-0.253</v>
       </c>
       <c r="G33">
-        <v>-4.21105527638191</v>
+        <v>-0.3866666666666667</v>
       </c>
       <c r="H33">
-        <v>-4.21105527638191</v>
+        <v>-0.3866666666666667</v>
       </c>
       <c r="I33">
-        <v>-4.525404581342131</v>
+        <v>-0.4733333333333333</v>
       </c>
       <c r="J33">
-        <v>-4.525404581342131</v>
+        <v>-0.4733333333333333</v>
       </c>
       <c r="K33">
-        <v>-49.1</v>
+        <v>-2.87</v>
       </c>
       <c r="L33">
-        <v>-24.67336683417086</v>
+        <v>-0.9566666666666667</v>
       </c>
       <c r="M33">
         <v>-0</v>
@@ -4538,70 +4415,73 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>17.6</v>
+        <v>0.486</v>
       </c>
       <c r="V33">
-        <v>0.7652173913043478</v>
+        <v>0.02219178082191781</v>
       </c>
       <c r="W33">
-        <v>-0.3234519104084321</v>
+        <v>-0.1161943319838057</v>
       </c>
       <c r="X33">
-        <v>0.05651715778218418</v>
+        <v>0.01832884715999056</v>
       </c>
       <c r="Y33">
-        <v>-0.3799690681906163</v>
+        <v>-0.1345231791437962</v>
       </c>
       <c r="Z33">
-        <v>0.007727171795840724</v>
+        <v>0.1118193000111819</v>
       </c>
       <c r="AA33">
-        <v>-0.03496857864571531</v>
+        <v>-0.05292780200529278</v>
       </c>
       <c r="AB33">
-        <v>0.03941272243295762</v>
+        <v>0.01879489720010947</v>
       </c>
       <c r="AC33">
-        <v>-0.07438130107867294</v>
+        <v>-0.07172269920540225</v>
       </c>
       <c r="AD33">
-        <v>93.2</v>
+        <v>0.954</v>
       </c>
       <c r="AE33">
-        <v>0.05277558435420326</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>93.25277558435421</v>
+        <v>0.954</v>
       </c>
       <c r="AG33">
-        <v>75.6527755843542</v>
+        <v>0.468</v>
       </c>
       <c r="AH33">
-        <v>0.8021552613742889</v>
+        <v>0.04174323969545812</v>
       </c>
       <c r="AI33">
-        <v>0.4452210066168254</v>
+        <v>0.04156138363683889</v>
       </c>
       <c r="AJ33">
-        <v>0.7668590684472574</v>
+        <v>0.02092274678111588</v>
       </c>
       <c r="AK33">
-        <v>0.394327240530805</v>
+        <v>0.02082962435463771</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="AM33">
-        <v>-1.24</v>
+        <v>0.065</v>
       </c>
       <c r="AN33">
-        <v>-10.71880391029327</v>
+        <v>-0.8224137931034483</v>
+      </c>
+      <c r="AO33">
+        <v>-21.84615384615384</v>
       </c>
       <c r="AP33">
-        <v>-8.700721746331707</v>
+        <v>-0.403448275862069</v>
       </c>
       <c r="AQ33">
-        <v>7.298387096774194</v>
+        <v>-21.84615384615384</v>
       </c>
     </row>
     <row r="34">
@@ -4612,7 +4492,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Asia Resources Holdings Limited (SEHK:899)</t>
+          <t>Momentum Financial Holdings Limited (SEHK:1152)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4620,23 +4500,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D34">
+        <v>0.8220000000000001</v>
+      </c>
       <c r="G34">
-        <v>-0.3272373540856031</v>
+        <v>-0.02660753880266075</v>
       </c>
       <c r="H34">
-        <v>-0.3272373540856031</v>
+        <v>-0.02660753880266075</v>
       </c>
       <c r="I34">
-        <v>-0.5714090022947708</v>
+        <v>-0.01636363636363636</v>
       </c>
       <c r="J34">
-        <v>-0.5714090022947708</v>
+        <v>-0.01636363636363636</v>
       </c>
       <c r="K34">
-        <v>-24.2</v>
+        <v>-1.96</v>
       </c>
       <c r="L34">
-        <v>-0.9416342412451362</v>
+        <v>-0.0434589800443459</v>
       </c>
       <c r="M34">
         <v>-0</v>
@@ -4660,73 +4543,73 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>4.1</v>
+        <v>5.38</v>
       </c>
       <c r="V34">
-        <v>0.08384458077709611</v>
+        <v>0.8499210110584517</v>
       </c>
       <c r="W34">
-        <v>-0.08370805949498443</v>
+        <v>-0.2390243902439025</v>
       </c>
       <c r="X34">
-        <v>0.02788841494450118</v>
+        <v>0.03421578875265978</v>
       </c>
       <c r="Y34">
-        <v>-0.1115964744394856</v>
+        <v>-0.2732401789965622</v>
       </c>
       <c r="Z34">
-        <v>0.09441550412262614</v>
+        <v>2.718505123568415</v>
       </c>
       <c r="AA34">
-        <v>-0.05394986901186762</v>
+        <v>-0.04448462929475588</v>
       </c>
       <c r="AB34">
-        <v>0.02806810226920652</v>
+        <v>0.03726410553478639</v>
       </c>
       <c r="AC34">
-        <v>-0.08201797128107415</v>
+        <v>-0.08174873482954226</v>
       </c>
       <c r="AD34">
-        <v>0.532</v>
+        <v>14.1</v>
       </c>
       <c r="AE34">
-        <v>0.7010567948780354</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1.233056794878035</v>
+        <v>14.1</v>
       </c>
       <c r="AG34">
-        <v>-2.866943205121964</v>
+        <v>8.719999999999999</v>
       </c>
       <c r="AH34">
-        <v>0.02459568344142968</v>
+        <v>0.6901615271659325</v>
       </c>
       <c r="AI34">
-        <v>0.00432297998252276</v>
+        <v>0.721596724667349</v>
       </c>
       <c r="AJ34">
-        <v>-0.06228009619037424</v>
+        <v>0.5794019933554817</v>
       </c>
       <c r="AK34">
-        <v>-0.01019781607259996</v>
+        <v>0.6158192090395479</v>
       </c>
       <c r="AL34">
-        <v>0.026</v>
+        <v>1.3</v>
       </c>
       <c r="AM34">
-        <v>-0.143</v>
+        <v>1.293</v>
       </c>
       <c r="AN34">
-        <v>-0.03682935271720319</v>
+        <v>-23.15270935960591</v>
       </c>
       <c r="AO34">
-        <v>-573.0769230769231</v>
+        <v>-0.5676923076923077</v>
       </c>
       <c r="AP34">
-        <v>0.1984730498526801</v>
+        <v>-14.31855500821018</v>
       </c>
       <c r="AQ34">
-        <v>104.1958041958042</v>
+        <v>-0.5707656612529002</v>
       </c>
     </row>
     <row r="35">
@@ -4737,7 +4620,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hong Kong Exchanges and Clearing Limited (SEHK:388)</t>
+          <t>PT International Development Corporation Limited (SEHK:372)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4746,124 +4629,115 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.118</v>
-      </c>
-      <c r="E35">
-        <v>0.146</v>
-      </c>
-      <c r="F35">
-        <v>0.0403</v>
+        <v>1.424</v>
       </c>
       <c r="G35">
-        <v>0.7038118884182855</v>
+        <v>-0.03065241844769404</v>
       </c>
       <c r="H35">
-        <v>0.7038118884182855</v>
+        <v>-0.03065241844769404</v>
       </c>
       <c r="I35">
-        <v>0.6739222045451477</v>
+        <v>-0.03413948256467941</v>
       </c>
       <c r="J35">
-        <v>0.5739790055919952</v>
+        <v>-0.03413948256467941</v>
       </c>
       <c r="K35">
-        <v>1178.4</v>
+        <v>-6.86</v>
       </c>
       <c r="L35">
-        <v>0.5736819044837156</v>
+        <v>-0.03858267716535433</v>
       </c>
       <c r="M35">
-        <v>1089.5146</v>
+        <v>-0</v>
       </c>
       <c r="N35">
-        <v>0.02666150981164673</v>
+        <v>-0</v>
       </c>
       <c r="O35">
-        <v>0.9245711133740664</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>1089.5146</v>
+        <v>-0</v>
       </c>
       <c r="Q35">
-        <v>0.02666150981164673</v>
+        <v>-0</v>
       </c>
       <c r="R35">
-        <v>0.9245711133740664</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
-        <v>15202.9</v>
+        <v>32.8</v>
       </c>
       <c r="V35">
-        <v>0.3720301384813788</v>
+        <v>0.6332046332046332</v>
       </c>
       <c r="W35">
-        <v>0.2340184688710158</v>
+        <v>-0.0725925925925926</v>
       </c>
       <c r="X35">
-        <v>0.02783142710045983</v>
+        <v>0.01817345781020446</v>
       </c>
       <c r="Y35">
-        <v>0.206187041770556</v>
+        <v>-0.09076605040279706</v>
       </c>
       <c r="Z35">
-        <v>-0.1907788282273752</v>
+        <v>2.166707287350719</v>
       </c>
       <c r="AA35">
-        <v>-0.1095030421139549</v>
+        <v>-0.0739702656592737</v>
       </c>
       <c r="AB35">
-        <v>0.02790225136784727</v>
+        <v>0.01841931396212697</v>
       </c>
       <c r="AC35">
-        <v>-0.1374052934818022</v>
+        <v>-0.09238957962140068</v>
       </c>
       <c r="AD35">
-        <v>361.7</v>
+        <v>1.15</v>
       </c>
       <c r="AE35">
-        <v>340.9819982190604</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>702.6819982190605</v>
+        <v>1.15</v>
       </c>
       <c r="AG35">
-        <v>-14500.21800178094</v>
+        <v>-31.65</v>
       </c>
       <c r="AH35">
-        <v>0.01690464889631892</v>
+        <v>0.02171860245514637</v>
       </c>
       <c r="AI35">
-        <v>0.1140147086185311</v>
+        <v>0.01258894362342638</v>
       </c>
       <c r="AJ35">
-        <v>-0.5499906276467119</v>
+        <v>-1.570719602977668</v>
       </c>
       <c r="AK35">
-        <v>1.604038709509886</v>
+        <v>-0.5405636208368915</v>
       </c>
       <c r="AL35">
-        <v>14.3</v>
+        <v>0.247</v>
       </c>
       <c r="AM35">
-        <v>14.3</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="AN35">
-        <v>0.2424100261376583</v>
+        <v>-0.197594501718213</v>
       </c>
       <c r="AO35">
-        <v>98.86013986013985</v>
+        <v>-24.5748987854251</v>
       </c>
       <c r="AP35">
-        <v>-9.717993433269177</v>
+        <v>5.438144329896907</v>
       </c>
       <c r="AQ35">
-        <v>98.86013986013985</v>
+        <v>3034.999999999997</v>
       </c>
     </row>
     <row r="36">
@@ -4874,7 +4748,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Momentum Financial Holdings Limited (SEHK:1152)</t>
+          <t>Hong Kong Exchanges and Clearing Limited (SEHK:388)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4883,115 +4757,124 @@
         </is>
       </c>
       <c r="D36">
-        <v>-0.131</v>
+        <v>0.06619999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.0588</v>
+      </c>
+      <c r="F36">
+        <v>0.198</v>
       </c>
       <c r="G36">
-        <v>-0.1032467532467533</v>
+        <v>0.6467585725503884</v>
       </c>
       <c r="H36">
-        <v>-0.1032467532467533</v>
+        <v>0.6467585725503884</v>
       </c>
       <c r="I36">
-        <v>-0.09228851800877913</v>
+        <v>0.6927405985516099</v>
       </c>
       <c r="J36">
-        <v>-0.09228851800877913</v>
+        <v>0.5960597808740444</v>
       </c>
       <c r="K36">
-        <v>-2.65</v>
+        <v>1362.4</v>
       </c>
       <c r="L36">
-        <v>-0.1720779220779221</v>
+        <v>0.5943634935869472</v>
       </c>
       <c r="M36">
-        <v>-0</v>
+        <v>486.871</v>
       </c>
       <c r="N36">
-        <v>-0</v>
+        <v>0.007023670414578482</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.3573627422196124</v>
       </c>
       <c r="P36">
-        <v>-0</v>
+        <v>486.871</v>
       </c>
       <c r="Q36">
-        <v>-0</v>
+        <v>0.007023670414578482</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>0.3573627422196124</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
       <c r="U36">
-        <v>5.31</v>
+        <v>15953.8</v>
       </c>
       <c r="V36">
-        <v>0.373943661971831</v>
+        <v>0.2301517918711572</v>
       </c>
       <c r="W36">
-        <v>-0.2572815533980582</v>
+        <v>0.2513004021101561</v>
       </c>
       <c r="X36">
-        <v>0.03490514914682658</v>
+        <v>0.01805052508155453</v>
       </c>
       <c r="Y36">
-        <v>-0.2921867025448848</v>
+        <v>0.2332498770286016</v>
       </c>
       <c r="Z36">
-        <v>1.223074891146634</v>
+        <v>-0.2433384997558335</v>
       </c>
       <c r="AA36">
-        <v>-0.1128757691176717</v>
+        <v>-0.1450442928426808</v>
       </c>
       <c r="AB36">
-        <v>0.0576124201305032</v>
+        <v>0.01806340177618604</v>
       </c>
       <c r="AC36">
-        <v>-0.1704881892481749</v>
+        <v>-0.1631076946188668</v>
       </c>
       <c r="AD36">
-        <v>13.7</v>
+        <v>367.5</v>
       </c>
       <c r="AE36">
-        <v>0.6812158866759924</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>14.38121588667599</v>
+        <v>367.5</v>
       </c>
       <c r="AG36">
-        <v>9.071215886675994</v>
+        <v>-15586.3</v>
       </c>
       <c r="AH36">
-        <v>0.5031701920484158</v>
+        <v>0.005273648546840762</v>
       </c>
       <c r="AI36">
-        <v>0.6368663210541113</v>
+        <v>0.05806512774328104</v>
       </c>
       <c r="AJ36">
-        <v>0.3898041224339183</v>
+        <v>-0.290073196196701</v>
       </c>
       <c r="AK36">
-        <v>0.5252216141698541</v>
+        <v>1.619406319158</v>
       </c>
       <c r="AL36">
-        <v>0.916</v>
+        <v>17.4</v>
       </c>
       <c r="AM36">
-        <v>0.893</v>
+        <v>17.4</v>
       </c>
       <c r="AN36">
-        <v>-12.39819004524887</v>
+        <v>0.2246057939127246</v>
       </c>
       <c r="AO36">
-        <v>-1.997816593886463</v>
+        <v>91.25862068965519</v>
       </c>
       <c r="AP36">
-        <v>-8.209245146313117</v>
+        <v>-9.525913702481359</v>
       </c>
       <c r="AQ36">
-        <v>-2.049272116461366</v>
+        <v>91.25862068965519</v>
       </c>
     </row>
     <row r="37">
@@ -5002,7 +4885,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>China Smartpay Group Holdings Limited (SEHK:8325)</t>
+          <t>Joyas International Holdings Limited (Catalist:E9L)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5011,25 +4894,25 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.148</v>
+        <v>-0.5479999999999999</v>
       </c>
       <c r="G37">
-        <v>-0.3108552631578947</v>
+        <v>-1.393939393939394</v>
       </c>
       <c r="H37">
-        <v>-0.3108552631578947</v>
+        <v>-1.393939393939394</v>
       </c>
       <c r="I37">
-        <v>-0.3042333804546701</v>
+        <v>-1.506493506493506</v>
       </c>
       <c r="J37">
-        <v>-0.3042333804546701</v>
+        <v>-1.506493506493506</v>
       </c>
       <c r="K37">
-        <v>-33.8</v>
+        <v>-0.293</v>
       </c>
       <c r="L37">
-        <v>-0.5559210526315789</v>
+        <v>-1.268398268398268</v>
       </c>
       <c r="M37">
         <v>-0</v>
@@ -5053,73 +4936,73 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>15.4</v>
+        <v>0.402</v>
       </c>
       <c r="V37">
-        <v>0.3492063492063492</v>
+        <v>0.04802867383512546</v>
       </c>
       <c r="W37">
-        <v>-0.2197659297789336</v>
+        <v>-0.2203007518796992</v>
       </c>
       <c r="X37">
-        <v>0.03478739858157536</v>
+        <v>0.01822836803958982</v>
       </c>
       <c r="Y37">
-        <v>-0.254553328360509</v>
+        <v>-0.238529119919289</v>
       </c>
       <c r="Z37">
-        <v>0.5299308626845585</v>
+        <v>0.1190721649484536</v>
       </c>
       <c r="AA37">
-        <v>-0.1612226577617829</v>
+        <v>-0.1793814432989691</v>
       </c>
       <c r="AB37">
-        <v>0.03499034096321334</v>
+        <v>0.01855381477089078</v>
       </c>
       <c r="AC37">
-        <v>-0.1962129987249962</v>
+        <v>-0.1979352580698598</v>
       </c>
       <c r="AD37">
-        <v>42.2</v>
+        <v>0.249</v>
       </c>
       <c r="AE37">
-        <v>1.731947658219711</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>43.93194765821971</v>
+        <v>0.249</v>
       </c>
       <c r="AG37">
-        <v>28.53194765821971</v>
+        <v>-0.153</v>
       </c>
       <c r="AH37">
-        <v>0.4990455036708222</v>
+        <v>0.02888966237382527</v>
       </c>
       <c r="AI37">
-        <v>0.2736648268402808</v>
+        <v>0.1887793783169067</v>
       </c>
       <c r="AJ37">
-        <v>0.3928291692311623</v>
+        <v>-0.01861993428258489</v>
       </c>
       <c r="AK37">
-        <v>0.1965931562181704</v>
+        <v>-0.1668484187568157</v>
       </c>
       <c r="AL37">
-        <v>5.17</v>
+        <v>0.154</v>
       </c>
       <c r="AM37">
-        <v>4.57</v>
+        <v>0.154</v>
       </c>
       <c r="AN37">
-        <v>-2.534382319380218</v>
+        <v>-0.7155172413793104</v>
       </c>
       <c r="AO37">
-        <v>-3.694390715667312</v>
+        <v>-2.25974025974026</v>
       </c>
       <c r="AP37">
-        <v>-1.713527575414072</v>
+        <v>0.4396551724137932</v>
       </c>
       <c r="AQ37">
-        <v>-4.179431072210066</v>
+        <v>-2.25974025974026</v>
       </c>
     </row>
     <row r="38">
@@ -5130,7 +5013,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Finet Group Limited (SEHK:8317)</t>
+          <t>China Smartpay Group Holdings Limited (SEHK:8325)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5139,25 +5022,25 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.06469999999999999</v>
+        <v>-0.219</v>
       </c>
       <c r="G38">
-        <v>-0.8808695652173913</v>
+        <v>-1.181208053691275</v>
       </c>
       <c r="H38">
-        <v>-0.8985507246376812</v>
+        <v>-1.181208053691275</v>
       </c>
       <c r="I38">
-        <v>-0.7635151405137992</v>
+        <v>-1.395973154362416</v>
       </c>
       <c r="J38">
-        <v>-0.7635151405137992</v>
+        <v>-1.395973154362416</v>
       </c>
       <c r="K38">
-        <v>-2.91</v>
+        <v>-90.8</v>
       </c>
       <c r="L38">
-        <v>-0.8434782608695652</v>
+        <v>-6.093959731543624</v>
       </c>
       <c r="M38">
         <v>-0</v>
@@ -5181,73 +5064,73 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>2.34</v>
+        <v>24.6</v>
       </c>
       <c r="V38">
-        <v>0.06077922077922077</v>
+        <v>0.6044226044226044</v>
       </c>
       <c r="W38">
-        <v>-0.2425</v>
+        <v>-0.8557964184731386</v>
       </c>
       <c r="X38">
-        <v>0.02882036651312912</v>
+        <v>0.02514345663143608</v>
       </c>
       <c r="Y38">
-        <v>-0.2713203665131291</v>
+        <v>-0.8809398751045746</v>
       </c>
       <c r="Z38">
-        <v>0.2846385247863134</v>
+        <v>0.2066574202496533</v>
       </c>
       <c r="AA38">
-        <v>-0.2173258232478626</v>
+        <v>-0.2884882108183079</v>
       </c>
       <c r="AB38">
-        <v>0.02925320419436418</v>
+        <v>0.02729690495957541</v>
       </c>
       <c r="AC38">
-        <v>-0.2465790274422268</v>
+        <v>-0.3157851157778833</v>
       </c>
       <c r="AD38">
-        <v>5.62</v>
+        <v>39.9</v>
       </c>
       <c r="AE38">
-        <v>0.4006361738630357</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>6.020636173863036</v>
+        <v>39.9</v>
       </c>
       <c r="AG38">
-        <v>3.680636173863036</v>
+        <v>15.3</v>
       </c>
       <c r="AH38">
-        <v>0.1352324829849939</v>
+        <v>0.4950372208436725</v>
       </c>
       <c r="AI38">
-        <v>0.4516390737350938</v>
+        <v>0.610091743119266</v>
       </c>
       <c r="AJ38">
-        <v>0.08725890616471353</v>
+        <v>0.2732142857142857</v>
       </c>
       <c r="AK38">
-        <v>0.3348883645712886</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="AL38">
-        <v>0.068</v>
+        <v>4</v>
       </c>
       <c r="AM38">
-        <v>0.067</v>
+        <v>3.822</v>
       </c>
       <c r="AN38">
-        <v>-2.47141600703606</v>
+        <v>-2.089005235602094</v>
       </c>
       <c r="AO38">
-        <v>-43.6764705882353</v>
+        <v>-5.2</v>
       </c>
       <c r="AP38">
-        <v>-1.61857351533115</v>
+        <v>-0.801047120418848</v>
       </c>
       <c r="AQ38">
-        <v>-44.32835820895522</v>
+        <v>-5.442176870748299</v>
       </c>
     </row>
     <row r="39">
@@ -5258,7 +5141,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AGM Group Holdings Inc. (NasdaqCM:AGMH)</t>
+          <t>China Success Finance Group Holdings Limited (SEHK:3623)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5266,32 +5149,35 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D39">
+        <v>0.15</v>
+      </c>
       <c r="G39">
-        <v>-1.579439252336448</v>
+        <v>-2.660714285714286</v>
       </c>
       <c r="H39">
-        <v>-2.16822429906542</v>
+        <v>-2.660714285714286</v>
       </c>
       <c r="I39">
-        <v>-2.930519469024933</v>
+        <v>-2.351049374500243</v>
       </c>
       <c r="J39">
-        <v>-2.930519469024933</v>
+        <v>-2.351049374500243</v>
       </c>
       <c r="K39">
-        <v>-3.85</v>
+        <v>-60.5</v>
       </c>
       <c r="L39">
-        <v>-3.598130841121495</v>
+        <v>-2.700892857142857</v>
       </c>
       <c r="M39">
-        <v>0.07000000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N39">
-        <v>0.0002017291066282421</v>
+        <v>-0</v>
       </c>
       <c r="O39">
-        <v>-0.01818181818181818</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>-0</v>
@@ -5303,73 +5189,76 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>2.21</v>
+        <v>12.1</v>
       </c>
       <c r="V39">
-        <v>0.006368876080691642</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="W39">
-        <v>-0.4405034324942792</v>
+        <v>-0.4352517985611511</v>
       </c>
       <c r="X39">
-        <v>0.02771105804516514</v>
+        <v>0.01991324753997955</v>
       </c>
       <c r="Y39">
-        <v>-0.4682144905394444</v>
+        <v>-0.4551650461011306</v>
       </c>
       <c r="Z39">
-        <v>0.2098747374497236</v>
+        <v>0.1700028073953615</v>
       </c>
       <c r="AA39">
-        <v>-0.6150420041529114</v>
+        <v>-0.3996849939901499</v>
       </c>
       <c r="AB39">
-        <v>0.02771296128745521</v>
+        <v>0.02003321706712095</v>
       </c>
       <c r="AC39">
-        <v>-0.6427549654403667</v>
+        <v>-0.4197182110572709</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="AE39">
-        <v>0.08827915928339455</v>
+        <v>0.06252994402715957</v>
       </c>
       <c r="AF39">
-        <v>0.08827915928339455</v>
+        <v>19.26252994402716</v>
       </c>
       <c r="AG39">
-        <v>-2.121720840716605</v>
+        <v>7.162529944027158</v>
       </c>
       <c r="AH39">
-        <v>0.0002543420927299077</v>
+        <v>0.2072074625725564</v>
       </c>
       <c r="AI39">
-        <v>0.01685270230910551</v>
+        <v>0.2032715879937444</v>
       </c>
       <c r="AJ39">
-        <v>-0.006152086022607067</v>
+        <v>0.08857662441411422</v>
       </c>
       <c r="AK39">
-        <v>-0.700635816289369</v>
+        <v>0.08664784333212501</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="AN39">
-        <v>-0</v>
+        <v>-0.3660559379230138</v>
+      </c>
+      <c r="AO39">
+        <v>-12.88508557457213</v>
       </c>
       <c r="AP39">
-        <v>0.6552565907092667</v>
+        <v>-0.1365565946126319</v>
+      </c>
+      <c r="AQ39">
+        <v>-12.88508557457213</v>
       </c>
     </row>
     <row r="40">
@@ -5380,7 +5269,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Capital Finance Holdings Limited (SEHK:8239)</t>
+          <t>Greater China Financial Holdings Limited (SEHK:431)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5388,32 +5277,35 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D40">
+        <v>0.172</v>
+      </c>
       <c r="G40">
-        <v>0.1205619412515964</v>
+        <v>-0.2688811188811189</v>
       </c>
       <c r="H40">
-        <v>0.1205619412515964</v>
+        <v>-0.2688811188811189</v>
       </c>
       <c r="I40">
-        <v>-1.046993655725466</v>
+        <v>-0.8111888111888111</v>
       </c>
       <c r="J40">
-        <v>-1.046993655725466</v>
+        <v>-0.8111888111888111</v>
       </c>
       <c r="K40">
-        <v>-11.3</v>
+        <v>-44.3</v>
       </c>
       <c r="L40">
-        <v>-1.443167305236271</v>
+        <v>-1.548951048951049</v>
       </c>
       <c r="M40">
-        <v>-0</v>
+        <v>0.002</v>
       </c>
       <c r="N40">
-        <v>-0</v>
+        <v>9.975062344139651e-06</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>-4.514672686230249e-05</v>
       </c>
       <c r="P40">
         <v>-0</v>
@@ -5425,70 +5317,79 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>0.002</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>0.06533665835411472</v>
+      </c>
+      <c r="W40">
+        <v>-0.5475896168108776</v>
       </c>
       <c r="X40">
-        <v>0.05026356316814946</v>
+        <v>0.01865414511156201</v>
+      </c>
+      <c r="Y40">
+        <v>-0.5662437619224396</v>
       </c>
       <c r="Z40">
-        <v>7.870915999309851</v>
+        <v>0.5437262357414449</v>
       </c>
       <c r="AA40">
-        <v>-8.240799116025478</v>
+        <v>-0.4410646387832699</v>
       </c>
       <c r="AB40">
-        <v>0.06337735675277459</v>
+        <v>0.01880324733889601</v>
       </c>
       <c r="AC40">
-        <v>-8.304176472778252</v>
+        <v>-0.4598678861221659</v>
       </c>
       <c r="AD40">
-        <v>59</v>
+        <v>17.7</v>
       </c>
       <c r="AE40">
-        <v>0.9948016216519858</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>59.99480162165199</v>
+        <v>17.7</v>
       </c>
       <c r="AG40">
-        <v>59.99480162165199</v>
+        <v>4.6</v>
       </c>
       <c r="AH40">
-        <v>0.7604404902285341</v>
+        <v>0.08111824014665445</v>
       </c>
       <c r="AI40">
-        <v>0.8886170170188528</v>
+        <v>0.3352272727272727</v>
       </c>
       <c r="AJ40">
-        <v>0.7604404902285341</v>
+        <v>0.02242808386153096</v>
       </c>
       <c r="AK40">
-        <v>0.8886170170188528</v>
+        <v>0.1158690176322418</v>
       </c>
       <c r="AL40">
-        <v>6.3</v>
+        <v>0.889</v>
       </c>
       <c r="AM40">
-        <v>5.988</v>
+        <v>-1.371</v>
       </c>
       <c r="AN40">
-        <v>-7.422317272612908</v>
+        <v>-0.8119266055045871</v>
       </c>
       <c r="AO40">
-        <v>-1.304761904761905</v>
+        <v>-26.09673790776153</v>
       </c>
       <c r="AP40">
-        <v>-7.547465293955464</v>
+        <v>-0.2110091743119266</v>
       </c>
       <c r="AQ40">
-        <v>-1.372745490981964</v>
+        <v>16.92195477753465</v>
       </c>
     </row>
     <row r="41">
@@ -5499,118 +5400,234 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Diginex Limited (NasdaqCM:EQOS)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G41">
+        <v>-77.57575757575759</v>
+      </c>
+      <c r="H41">
+        <v>-84.24242424242425</v>
+      </c>
+      <c r="I41">
+        <v>-85.85858585858585</v>
+      </c>
+      <c r="J41">
+        <v>-85.85858585858585</v>
+      </c>
+      <c r="K41">
+        <v>-57.7</v>
+      </c>
+      <c r="L41">
+        <v>-116.5656565656566</v>
+      </c>
+      <c r="M41">
+        <v>-0</v>
+      </c>
+      <c r="N41">
+        <v>-0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-0</v>
+      </c>
+      <c r="Q41">
+        <v>-0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1.49</v>
+      </c>
+      <c r="V41">
+        <v>0.002910724750927916</v>
+      </c>
+      <c r="W41">
+        <v>-14.75703324808184</v>
+      </c>
+      <c r="X41">
+        <v>0.01821801456233927</v>
+      </c>
+      <c r="Y41">
+        <v>-14.77525126264418</v>
+      </c>
+      <c r="Z41">
+        <v>0.02665589660743134</v>
+      </c>
+      <c r="AA41">
+        <v>-2.288637587506731</v>
+      </c>
+      <c r="AB41">
+        <v>0.01852860532353998</v>
+      </c>
+      <c r="AC41">
+        <v>-2.307166192830271</v>
+      </c>
+      <c r="AD41">
+        <v>14.5</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>14.5</v>
+      </c>
+      <c r="AG41">
+        <v>13.01</v>
+      </c>
+      <c r="AH41">
+        <v>0.02754559270516718</v>
+      </c>
+      <c r="AI41">
+        <v>1.364063969896519</v>
+      </c>
+      <c r="AJ41">
+        <v>0.02478520127259911</v>
+      </c>
+      <c r="AK41">
+        <v>1.423413566739606</v>
+      </c>
+      <c r="AL41">
+        <v>1.85</v>
+      </c>
+      <c r="AM41">
+        <v>1.85</v>
+      </c>
+      <c r="AN41">
+        <v>-0.3477218225419664</v>
+      </c>
+      <c r="AO41">
+        <v>-22.97297297297297</v>
+      </c>
+      <c r="AP41">
+        <v>-0.3119904076738609</v>
+      </c>
+      <c r="AQ41">
+        <v>-22.97297297297297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Chinese Strategic Holdings Limited (SEHK:8089)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D41">
-        <v>-0.172</v>
-      </c>
-      <c r="G41">
-        <v>-28</v>
-      </c>
-      <c r="H41">
-        <v>-28</v>
-      </c>
-      <c r="I41">
-        <v>-24.47708803169837</v>
-      </c>
-      <c r="J41">
-        <v>-24.47708803169837</v>
-      </c>
-      <c r="K41">
-        <v>-20.8</v>
-      </c>
-      <c r="L41">
-        <v>-46.22222222222222</v>
-      </c>
-      <c r="M41">
-        <v>-0</v>
-      </c>
-      <c r="N41">
-        <v>-0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>-0</v>
-      </c>
-      <c r="Q41">
-        <v>-0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0.04691531775818713</v>
-      </c>
-      <c r="Z41">
-        <v>2.211866630523222</v>
-      </c>
-      <c r="AA41">
-        <v>-54.14005422969296</v>
-      </c>
-      <c r="AB41">
-        <v>0.08023284529876969</v>
-      </c>
-      <c r="AC41">
-        <v>-54.22028707499173</v>
-      </c>
-      <c r="AD41">
-        <v>23.8</v>
-      </c>
-      <c r="AE41">
-        <v>0.2034480713213488</v>
-      </c>
-      <c r="AF41">
-        <v>24.00344807132135</v>
-      </c>
-      <c r="AG41">
-        <v>24.00344807132135</v>
-      </c>
-      <c r="AH41">
-        <v>0.7299553264383939</v>
-      </c>
-      <c r="AI41">
-        <v>0.4537218072999949</v>
-      </c>
-      <c r="AJ41">
-        <v>0.7299553264383939</v>
-      </c>
-      <c r="AK41">
-        <v>0.4537218072999949</v>
-      </c>
-      <c r="AL41">
-        <v>3</v>
-      </c>
-      <c r="AM41">
-        <v>2.923</v>
-      </c>
-      <c r="AN41">
-        <v>-2.294197031039137</v>
-      </c>
-      <c r="AO41">
-        <v>-3.733333333333333</v>
-      </c>
-      <c r="AP41">
-        <v>-2.313808373946535</v>
-      </c>
-      <c r="AQ41">
-        <v>-3.831679781046869</v>
+      <c r="D42">
+        <v>-0.122</v>
+      </c>
+      <c r="G42">
+        <v>-10.61872909698997</v>
+      </c>
+      <c r="H42">
+        <v>-10.61872909698997</v>
+      </c>
+      <c r="I42">
+        <v>-8.210702341137125</v>
+      </c>
+      <c r="J42">
+        <v>-8.210702341137125</v>
+      </c>
+      <c r="K42">
+        <v>-18.9</v>
+      </c>
+      <c r="L42">
+        <v>-31.60535117056856</v>
+      </c>
+      <c r="M42">
+        <v>-0</v>
+      </c>
+      <c r="N42">
+        <v>-0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>-0</v>
+      </c>
+      <c r="Q42">
+        <v>-0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0.09204205783753533</v>
+      </c>
+      <c r="AB42">
+        <v>0.03508987332724799</v>
+      </c>
+      <c r="AD42">
+        <v>28.8</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>28.8</v>
+      </c>
+      <c r="AG42">
+        <v>28.8</v>
+      </c>
+      <c r="AH42">
+        <v>0.9105279797660448</v>
+      </c>
+      <c r="AI42">
+        <v>0.7855973813420621</v>
+      </c>
+      <c r="AJ42">
+        <v>0.9105279797660448</v>
+      </c>
+      <c r="AK42">
+        <v>0.7855973813420621</v>
+      </c>
+      <c r="AL42">
+        <v>3.49</v>
+      </c>
+      <c r="AM42">
+        <v>3.449</v>
+      </c>
+      <c r="AN42">
+        <v>-5.818181818181818</v>
+      </c>
+      <c r="AO42">
+        <v>-1.406876790830945</v>
+      </c>
+      <c r="AP42">
+        <v>-5.818181818181818</v>
+      </c>
+      <c r="AQ42">
+        <v>-1.423601043780806</v>
       </c>
     </row>
   </sheetData>
